--- a/data/Lab4Data.xlsx
+++ b/data/Lab4Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mymailnku-my.sharepoint.com/personal/adjeis1_nku_edu/Documents/Teaching/2021/Fall 2021/DSC200/Labs/LabData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{476F0669-C4D6-F749-B7CC-00438BB65D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{476F0669-C4D6-F749-B7CC-00438BB65D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8359069-E5ED-4C69-B09A-CA84A90F0B65}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27260" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1278,6 +1278,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Narrow"/>
+      </rPr>
       <t>Female genital mutilation/cutting (%)</t>
     </r>
     <r>
@@ -1285,20 +1291,20 @@
         <b/>
         <vertAlign val="superscript"/>
         <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial Narrow"/>
-        <family val="2"/>
       </rPr>
-      <t>+</t>
+      <t xml:space="preserve">+
+</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial Narrow"/>
-        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">
-2002–2012*</t>
+      <t>2002–2012*</t>
     </r>
   </si>
   <si>
@@ -3735,7 +3741,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3922,6 +3928,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4145,7 +4164,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -4310,6 +4329,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4376,6 +4396,9 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4427,9 +4450,6 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4473,6 +4493,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4485,7 +4508,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
@@ -4792,31 +4814,31 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="72.75" customHeight="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="70" t="s">
@@ -4824,31 +4846,31 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="69" customHeight="1">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="70" t="s">
@@ -4856,27 +4878,27 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="71" t="s">
@@ -4884,25 +4906,25 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="71" t="s">
@@ -4910,31 +4932,31 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="71" t="s">
@@ -4942,26 +4964,26 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="71" t="s">
@@ -4969,30 +4991,30 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="73"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="71" t="s">
@@ -5000,27 +5022,27 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="71" t="s">
@@ -5028,30 +5050,30 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="24.75" customHeight="1">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="73"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="71" t="s">
@@ -5059,30 +5081,30 @@
       </c>
     </row>
     <row r="21" spans="1:23" ht="30.75" customHeight="1">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="73"/>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="71" t="s">
@@ -5090,30 +5112,30 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="17.25" customHeight="1">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="73"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="71" t="s">
@@ -5121,31 +5143,31 @@
       </c>
     </row>
     <row r="25" spans="1:23" ht="42" customHeight="1">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="72"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="73"/>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="70" t="s">
@@ -5158,58 +5180,58 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="42.75" customHeight="1">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="72"/>
-      <c r="W29" s="72"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="73"/>
     </row>
     <row r="30" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="72"/>
-      <c r="U30" s="72"/>
-      <c r="V30" s="72"/>
-      <c r="W30" s="72"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="73"/>
+      <c r="W30" s="73"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="70" t="s">
@@ -5217,85 +5239,85 @@
       </c>
     </row>
     <row r="33" spans="1:23" ht="33" customHeight="1">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="72"/>
-      <c r="R33" s="72"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="72"/>
-      <c r="V33" s="72"/>
-      <c r="W33" s="72"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="73"/>
+      <c r="W33" s="73"/>
     </row>
     <row r="34" spans="1:23" ht="30" customHeight="1">
-      <c r="A34" s="72" t="s">
+      <c r="A34" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="72"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="72"/>
-      <c r="V34" s="72"/>
-      <c r="W34" s="72"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="73"/>
+      <c r="W34" s="73"/>
     </row>
     <row r="35" spans="1:23" ht="80.25" customHeight="1">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="72"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="73"/>
+      <c r="W35" s="73"/>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="70" t="s">
@@ -5303,31 +5325,31 @@
       </c>
     </row>
     <row r="38" spans="1:23" ht="57.75" customHeight="1">
-      <c r="A38" s="72" t="s">
+      <c r="A38" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="72"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="72"/>
-      <c r="W38" s="72"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="73"/>
+      <c r="U38" s="73"/>
+      <c r="V38" s="73"/>
+      <c r="W38" s="73"/>
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="70" t="s">
@@ -5335,31 +5357,31 @@
       </c>
     </row>
     <row r="41" spans="1:23" ht="44.25" customHeight="1">
-      <c r="A41" s="72" t="s">
+      <c r="A41" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="72"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="72"/>
-      <c r="Q41" s="72"/>
-      <c r="R41" s="72"/>
-      <c r="S41" s="72"/>
-      <c r="T41" s="72"/>
-      <c r="U41" s="72"/>
-      <c r="V41" s="72"/>
-      <c r="W41" s="72"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="73"/>
+      <c r="W41" s="73"/>
     </row>
     <row r="43" spans="1:23">
       <c r="A43" s="70" t="s">
@@ -5367,111 +5389,111 @@
       </c>
     </row>
     <row r="44" spans="1:23" ht="29.25" customHeight="1">
-      <c r="A44" s="72" t="s">
+      <c r="A44" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="72"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="72"/>
-      <c r="T44" s="72"/>
-      <c r="U44" s="72"/>
-      <c r="V44" s="72"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="73"/>
+      <c r="S44" s="73"/>
+      <c r="T44" s="73"/>
+      <c r="U44" s="73"/>
+      <c r="V44" s="73"/>
     </row>
     <row r="45" spans="1:23" ht="29.25" customHeight="1">
-      <c r="A45" s="72" t="s">
+      <c r="A45" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="72"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="72"/>
-      <c r="K45" s="72"/>
-      <c r="L45" s="72"/>
-      <c r="M45" s="72"/>
-      <c r="N45" s="72"/>
-      <c r="O45" s="72"/>
-      <c r="P45" s="72"/>
-      <c r="Q45" s="72"/>
-      <c r="R45" s="72"/>
-      <c r="S45" s="72"/>
-      <c r="T45" s="72"/>
-      <c r="U45" s="72"/>
-      <c r="V45" s="72"/>
-      <c r="W45" s="72"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="73"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="73"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="73"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="73"/>
+      <c r="W45" s="73"/>
     </row>
     <row r="46" spans="1:23" ht="29.25" customHeight="1">
-      <c r="A46" s="72" t="s">
+      <c r="A46" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="72"/>
-      <c r="L46" s="72"/>
-      <c r="M46" s="72"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="72"/>
-      <c r="P46" s="72"/>
-      <c r="Q46" s="72"/>
-      <c r="R46" s="72"/>
-      <c r="S46" s="72"/>
-      <c r="T46" s="72"/>
-      <c r="U46" s="72"/>
-      <c r="V46" s="72"/>
-      <c r="W46" s="72"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="73"/>
+      <c r="Q46" s="73"/>
+      <c r="R46" s="73"/>
+      <c r="S46" s="73"/>
+      <c r="T46" s="73"/>
+      <c r="U46" s="73"/>
+      <c r="V46" s="73"/>
+      <c r="W46" s="73"/>
     </row>
     <row r="47" spans="1:23" ht="32.25" customHeight="1">
-      <c r="A47" s="72" t="s">
+      <c r="A47" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="72"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="72"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="72"/>
-      <c r="N47" s="72"/>
-      <c r="O47" s="72"/>
-      <c r="P47" s="72"/>
-      <c r="Q47" s="72"/>
-      <c r="R47" s="72"/>
-      <c r="S47" s="72"/>
-      <c r="T47" s="72"/>
-      <c r="U47" s="72"/>
-      <c r="V47" s="72"/>
-      <c r="W47" s="72"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="73"/>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="73"/>
+      <c r="S47" s="73"/>
+      <c r="T47" s="73"/>
+      <c r="U47" s="73"/>
+      <c r="V47" s="73"/>
+      <c r="W47" s="73"/>
     </row>
     <row r="49" spans="1:23">
       <c r="A49" s="70" t="s">
@@ -5479,85 +5501,85 @@
       </c>
     </row>
     <row r="50" spans="1:23" ht="32.25" customHeight="1">
-      <c r="A50" s="72" t="s">
+      <c r="A50" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="72"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="72"/>
-      <c r="N50" s="72"/>
-      <c r="O50" s="72"/>
-      <c r="P50" s="72"/>
-      <c r="Q50" s="72"/>
-      <c r="R50" s="72"/>
-      <c r="S50" s="72"/>
-      <c r="T50" s="72"/>
-      <c r="U50" s="72"/>
-      <c r="V50" s="72"/>
-      <c r="W50" s="72"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="73"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="73"/>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="73"/>
+      <c r="S50" s="73"/>
+      <c r="T50" s="73"/>
+      <c r="U50" s="73"/>
+      <c r="V50" s="73"/>
+      <c r="W50" s="73"/>
     </row>
     <row r="51" spans="1:23" ht="77.25" customHeight="1">
-      <c r="A51" s="72" t="s">
+      <c r="A51" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="72"/>
-      <c r="N51" s="72"/>
-      <c r="O51" s="72"/>
-      <c r="P51" s="72"/>
-      <c r="Q51" s="72"/>
-      <c r="R51" s="72"/>
-      <c r="S51" s="72"/>
-      <c r="T51" s="72"/>
-      <c r="U51" s="72"/>
-      <c r="V51" s="72"/>
-      <c r="W51" s="72"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="73"/>
+      <c r="N51" s="73"/>
+      <c r="O51" s="73"/>
+      <c r="P51" s="73"/>
+      <c r="Q51" s="73"/>
+      <c r="R51" s="73"/>
+      <c r="S51" s="73"/>
+      <c r="T51" s="73"/>
+      <c r="U51" s="73"/>
+      <c r="V51" s="73"/>
+      <c r="W51" s="73"/>
     </row>
     <row r="52" spans="1:23" ht="76.5" customHeight="1">
-      <c r="A52" s="73" t="s">
+      <c r="A52" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="73"/>
-      <c r="C52" s="73"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="73"/>
-      <c r="L52" s="73"/>
-      <c r="M52" s="73"/>
-      <c r="N52" s="73"/>
-      <c r="O52" s="73"/>
-      <c r="P52" s="73"/>
-      <c r="Q52" s="73"/>
-      <c r="R52" s="73"/>
-      <c r="S52" s="73"/>
-      <c r="T52" s="73"/>
-      <c r="U52" s="73"/>
-      <c r="V52" s="73"/>
-      <c r="W52" s="73"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
+      <c r="L52" s="74"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
+      <c r="O52" s="74"/>
+      <c r="P52" s="74"/>
+      <c r="Q52" s="74"/>
+      <c r="R52" s="74"/>
+      <c r="S52" s="74"/>
+      <c r="T52" s="74"/>
+      <c r="U52" s="74"/>
+      <c r="V52" s="74"/>
+      <c r="W52" s="74"/>
     </row>
     <row r="53" spans="1:23">
       <c r="B53" s="70" t="s">
@@ -5565,30 +5587,30 @@
       </c>
     </row>
     <row r="54" spans="1:23" ht="126.75" customHeight="1">
-      <c r="B54" s="73" t="s">
+      <c r="B54" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="73"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="73"/>
-      <c r="J54" s="73"/>
-      <c r="K54" s="73"/>
-      <c r="L54" s="73"/>
-      <c r="M54" s="73"/>
-      <c r="N54" s="73"/>
-      <c r="O54" s="73"/>
-      <c r="P54" s="73"/>
-      <c r="Q54" s="73"/>
-      <c r="R54" s="73"/>
-      <c r="S54" s="73"/>
-      <c r="T54" s="73"/>
-      <c r="U54" s="73"/>
-      <c r="V54" s="73"/>
-      <c r="W54" s="73"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="74"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="74"/>
+      <c r="O54" s="74"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="74"/>
+      <c r="R54" s="74"/>
+      <c r="S54" s="74"/>
+      <c r="T54" s="74"/>
+      <c r="U54" s="74"/>
+      <c r="V54" s="74"/>
+      <c r="W54" s="74"/>
     </row>
     <row r="55" spans="1:23">
       <c r="B55" s="70" t="s">
@@ -5596,30 +5618,30 @@
       </c>
     </row>
     <row r="56" spans="1:23" ht="105.75" customHeight="1">
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="73"/>
-      <c r="L56" s="73"/>
-      <c r="M56" s="73"/>
-      <c r="N56" s="73"/>
-      <c r="O56" s="73"/>
-      <c r="P56" s="73"/>
-      <c r="Q56" s="73"/>
-      <c r="R56" s="73"/>
-      <c r="S56" s="73"/>
-      <c r="T56" s="73"/>
-      <c r="U56" s="73"/>
-      <c r="V56" s="73"/>
-      <c r="W56" s="73"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="74"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="74"/>
+      <c r="M56" s="74"/>
+      <c r="N56" s="74"/>
+      <c r="O56" s="74"/>
+      <c r="P56" s="74"/>
+      <c r="Q56" s="74"/>
+      <c r="R56" s="74"/>
+      <c r="S56" s="74"/>
+      <c r="T56" s="74"/>
+      <c r="U56" s="74"/>
+      <c r="V56" s="74"/>
+      <c r="W56" s="74"/>
     </row>
     <row r="58" spans="1:23">
       <c r="B58" s="70" t="s">
@@ -5627,19 +5649,19 @@
       </c>
     </row>
     <row r="59" spans="1:23" ht="12.75" customHeight="1">
-      <c r="B59" s="73" t="s">
+      <c r="B59" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="C59" s="73"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="73"/>
-      <c r="H59" s="73"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="73"/>
-      <c r="K59" s="73"/>
-      <c r="L59" s="73"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="74"/>
+      <c r="J59" s="74"/>
+      <c r="K59" s="74"/>
+      <c r="L59" s="74"/>
     </row>
     <row r="60" spans="1:23">
       <c r="B60" s="71" t="s">
@@ -5647,16 +5669,16 @@
       </c>
     </row>
     <row r="61" spans="1:23" ht="15.75" customHeight="1">
-      <c r="B61" s="73" t="s">
+      <c r="B61" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="73"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="73"/>
-      <c r="G61" s="73"/>
-      <c r="H61" s="73"/>
-      <c r="I61" s="73"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
     </row>
     <row r="62" spans="1:23">
       <c r="B62" s="71" t="s">
@@ -5664,30 +5686,30 @@
       </c>
     </row>
     <row r="63" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B63" s="73" t="s">
+      <c r="B63" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="73"/>
-      <c r="I63" s="73"/>
-      <c r="J63" s="73"/>
-      <c r="K63" s="73"/>
-      <c r="L63" s="73"/>
-      <c r="M63" s="73"/>
-      <c r="N63" s="73"/>
-      <c r="O63" s="73"/>
-      <c r="P63" s="73"/>
-      <c r="Q63" s="73"/>
-      <c r="R63" s="73"/>
-      <c r="S63" s="73"/>
-      <c r="T63" s="73"/>
-      <c r="U63" s="73"/>
-      <c r="V63" s="73"/>
-      <c r="W63" s="73"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="74"/>
+      <c r="I63" s="74"/>
+      <c r="J63" s="74"/>
+      <c r="K63" s="74"/>
+      <c r="L63" s="74"/>
+      <c r="M63" s="74"/>
+      <c r="N63" s="74"/>
+      <c r="O63" s="74"/>
+      <c r="P63" s="74"/>
+      <c r="Q63" s="74"/>
+      <c r="R63" s="74"/>
+      <c r="S63" s="74"/>
+      <c r="T63" s="74"/>
+      <c r="U63" s="74"/>
+      <c r="V63" s="74"/>
+      <c r="W63" s="74"/>
     </row>
     <row r="64" spans="1:23">
       <c r="B64" s="71" t="s">
@@ -5695,30 +5717,30 @@
       </c>
     </row>
     <row r="65" spans="2:23" ht="15" customHeight="1">
-      <c r="B65" s="73" t="s">
+      <c r="B65" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="73"/>
-      <c r="J65" s="73"/>
-      <c r="K65" s="73"/>
-      <c r="L65" s="73"/>
-      <c r="M65" s="73"/>
-      <c r="N65" s="73"/>
-      <c r="O65" s="73"/>
-      <c r="P65" s="73"/>
-      <c r="Q65" s="73"/>
-      <c r="R65" s="73"/>
-      <c r="S65" s="73"/>
-      <c r="T65" s="73"/>
-      <c r="U65" s="73"/>
-      <c r="V65" s="73"/>
-      <c r="W65" s="73"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="74"/>
+      <c r="J65" s="74"/>
+      <c r="K65" s="74"/>
+      <c r="L65" s="74"/>
+      <c r="M65" s="74"/>
+      <c r="N65" s="74"/>
+      <c r="O65" s="74"/>
+      <c r="P65" s="74"/>
+      <c r="Q65" s="74"/>
+      <c r="R65" s="74"/>
+      <c r="S65" s="74"/>
+      <c r="T65" s="74"/>
+      <c r="U65" s="74"/>
+      <c r="V65" s="74"/>
+      <c r="W65" s="74"/>
     </row>
     <row r="66" spans="2:23">
       <c r="B66" s="71" t="s">
@@ -5726,30 +5748,30 @@
       </c>
     </row>
     <row r="67" spans="2:23" ht="20.25" customHeight="1">
-      <c r="B67" s="73" t="s">
+      <c r="B67" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="73"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="73"/>
-      <c r="F67" s="73"/>
-      <c r="G67" s="73"/>
-      <c r="H67" s="73"/>
-      <c r="I67" s="73"/>
-      <c r="J67" s="73"/>
-      <c r="K67" s="73"/>
-      <c r="L67" s="73"/>
-      <c r="M67" s="73"/>
-      <c r="N67" s="73"/>
-      <c r="O67" s="73"/>
-      <c r="P67" s="73"/>
-      <c r="Q67" s="73"/>
-      <c r="R67" s="73"/>
-      <c r="S67" s="73"/>
-      <c r="T67" s="73"/>
-      <c r="U67" s="73"/>
-      <c r="V67" s="73"/>
-      <c r="W67" s="73"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="74"/>
+      <c r="J67" s="74"/>
+      <c r="K67" s="74"/>
+      <c r="L67" s="74"/>
+      <c r="M67" s="74"/>
+      <c r="N67" s="74"/>
+      <c r="O67" s="74"/>
+      <c r="P67" s="74"/>
+      <c r="Q67" s="74"/>
+      <c r="R67" s="74"/>
+      <c r="S67" s="74"/>
+      <c r="T67" s="74"/>
+      <c r="U67" s="74"/>
+      <c r="V67" s="74"/>
+      <c r="W67" s="74"/>
     </row>
     <row r="68" spans="2:23">
       <c r="B68" s="71" t="s">
@@ -5767,30 +5789,30 @@
       </c>
     </row>
     <row r="71" spans="2:23" ht="28.5" customHeight="1">
-      <c r="B71" s="73" t="s">
+      <c r="B71" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="73"/>
-      <c r="H71" s="73"/>
-      <c r="I71" s="73"/>
-      <c r="J71" s="73"/>
-      <c r="K71" s="73"/>
-      <c r="L71" s="73"/>
-      <c r="M71" s="73"/>
-      <c r="N71" s="73"/>
-      <c r="O71" s="73"/>
-      <c r="P71" s="73"/>
-      <c r="Q71" s="73"/>
-      <c r="R71" s="73"/>
-      <c r="S71" s="73"/>
-      <c r="T71" s="73"/>
-      <c r="U71" s="73"/>
-      <c r="V71" s="73"/>
-      <c r="W71" s="73"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="74"/>
+      <c r="H71" s="74"/>
+      <c r="I71" s="74"/>
+      <c r="J71" s="74"/>
+      <c r="K71" s="74"/>
+      <c r="L71" s="74"/>
+      <c r="M71" s="74"/>
+      <c r="N71" s="74"/>
+      <c r="O71" s="74"/>
+      <c r="P71" s="74"/>
+      <c r="Q71" s="74"/>
+      <c r="R71" s="74"/>
+      <c r="S71" s="74"/>
+      <c r="T71" s="74"/>
+      <c r="U71" s="74"/>
+      <c r="V71" s="74"/>
+      <c r="W71" s="74"/>
     </row>
     <row r="72" spans="2:23">
       <c r="B72" s="71" t="s">
@@ -5798,29 +5820,29 @@
       </c>
     </row>
     <row r="73" spans="2:23" ht="30" customHeight="1">
-      <c r="B73" s="73" t="s">
+      <c r="B73" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="C73" s="73"/>
-      <c r="D73" s="73"/>
-      <c r="E73" s="73"/>
-      <c r="F73" s="73"/>
-      <c r="G73" s="73"/>
-      <c r="H73" s="73"/>
-      <c r="I73" s="73"/>
-      <c r="J73" s="73"/>
-      <c r="K73" s="73"/>
-      <c r="L73" s="73"/>
-      <c r="M73" s="73"/>
-      <c r="N73" s="73"/>
-      <c r="O73" s="73"/>
-      <c r="P73" s="73"/>
-      <c r="Q73" s="73"/>
-      <c r="R73" s="73"/>
-      <c r="S73" s="73"/>
-      <c r="T73" s="73"/>
-      <c r="U73" s="73"/>
-      <c r="V73" s="73"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="74"/>
+      <c r="I73" s="74"/>
+      <c r="J73" s="74"/>
+      <c r="K73" s="74"/>
+      <c r="L73" s="74"/>
+      <c r="M73" s="74"/>
+      <c r="N73" s="74"/>
+      <c r="O73" s="74"/>
+      <c r="P73" s="74"/>
+      <c r="Q73" s="74"/>
+      <c r="R73" s="74"/>
+      <c r="S73" s="74"/>
+      <c r="T73" s="74"/>
+      <c r="U73" s="74"/>
+      <c r="V73" s="74"/>
     </row>
     <row r="74" spans="2:23">
       <c r="B74" s="71" t="s">
@@ -5838,30 +5860,30 @@
       </c>
     </row>
     <row r="77" spans="2:23" ht="43.5" customHeight="1">
-      <c r="B77" s="73" t="s">
+      <c r="B77" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="C77" s="73"/>
-      <c r="D77" s="73"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="73"/>
-      <c r="H77" s="73"/>
-      <c r="I77" s="73"/>
-      <c r="J77" s="73"/>
-      <c r="K77" s="73"/>
-      <c r="L77" s="73"/>
-      <c r="M77" s="73"/>
-      <c r="N77" s="73"/>
-      <c r="O77" s="73"/>
-      <c r="P77" s="73"/>
-      <c r="Q77" s="73"/>
-      <c r="R77" s="73"/>
-      <c r="S77" s="73"/>
-      <c r="T77" s="73"/>
-      <c r="U77" s="73"/>
-      <c r="V77" s="73"/>
-      <c r="W77" s="73"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="74"/>
+      <c r="J77" s="74"/>
+      <c r="K77" s="74"/>
+      <c r="L77" s="74"/>
+      <c r="M77" s="74"/>
+      <c r="N77" s="74"/>
+      <c r="O77" s="74"/>
+      <c r="P77" s="74"/>
+      <c r="Q77" s="74"/>
+      <c r="R77" s="74"/>
+      <c r="S77" s="74"/>
+      <c r="T77" s="74"/>
+      <c r="U77" s="74"/>
+      <c r="V77" s="74"/>
+      <c r="W77" s="74"/>
     </row>
     <row r="79" spans="2:23">
       <c r="B79" s="70" t="s">
@@ -5874,30 +5896,30 @@
       </c>
     </row>
     <row r="81" spans="2:23" ht="80.25" customHeight="1">
-      <c r="B81" s="73" t="s">
+      <c r="B81" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="C81" s="73"/>
-      <c r="D81" s="73"/>
-      <c r="E81" s="73"/>
-      <c r="F81" s="73"/>
-      <c r="G81" s="73"/>
-      <c r="H81" s="73"/>
-      <c r="I81" s="73"/>
-      <c r="J81" s="73"/>
-      <c r="K81" s="73"/>
-      <c r="L81" s="73"/>
-      <c r="M81" s="73"/>
-      <c r="N81" s="73"/>
-      <c r="O81" s="73"/>
-      <c r="P81" s="73"/>
-      <c r="Q81" s="73"/>
-      <c r="R81" s="73"/>
-      <c r="S81" s="73"/>
-      <c r="T81" s="73"/>
-      <c r="U81" s="73"/>
-      <c r="V81" s="73"/>
-      <c r="W81" s="73"/>
+      <c r="C81" s="74"/>
+      <c r="D81" s="74"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="74"/>
+      <c r="G81" s="74"/>
+      <c r="H81" s="74"/>
+      <c r="I81" s="74"/>
+      <c r="J81" s="74"/>
+      <c r="K81" s="74"/>
+      <c r="L81" s="74"/>
+      <c r="M81" s="74"/>
+      <c r="N81" s="74"/>
+      <c r="O81" s="74"/>
+      <c r="P81" s="74"/>
+      <c r="Q81" s="74"/>
+      <c r="R81" s="74"/>
+      <c r="S81" s="74"/>
+      <c r="T81" s="74"/>
+      <c r="U81" s="74"/>
+      <c r="V81" s="74"/>
+      <c r="W81" s="74"/>
     </row>
     <row r="82" spans="2:23">
       <c r="B82" s="70" t="s">
@@ -5905,30 +5927,30 @@
       </c>
     </row>
     <row r="83" spans="2:23" ht="168" customHeight="1">
-      <c r="B83" s="73" t="s">
+      <c r="B83" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="C83" s="73"/>
-      <c r="D83" s="73"/>
-      <c r="E83" s="73"/>
-      <c r="F83" s="73"/>
-      <c r="G83" s="73"/>
-      <c r="H83" s="73"/>
-      <c r="I83" s="73"/>
-      <c r="J83" s="73"/>
-      <c r="K83" s="73"/>
-      <c r="L83" s="73"/>
-      <c r="M83" s="73"/>
-      <c r="N83" s="73"/>
-      <c r="O83" s="73"/>
-      <c r="P83" s="73"/>
-      <c r="Q83" s="73"/>
-      <c r="R83" s="73"/>
-      <c r="S83" s="73"/>
-      <c r="T83" s="73"/>
-      <c r="U83" s="73"/>
-      <c r="V83" s="73"/>
-      <c r="W83" s="73"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="74"/>
+      <c r="H83" s="74"/>
+      <c r="I83" s="74"/>
+      <c r="J83" s="74"/>
+      <c r="K83" s="74"/>
+      <c r="L83" s="74"/>
+      <c r="M83" s="74"/>
+      <c r="N83" s="74"/>
+      <c r="O83" s="74"/>
+      <c r="P83" s="74"/>
+      <c r="Q83" s="74"/>
+      <c r="R83" s="74"/>
+      <c r="S83" s="74"/>
+      <c r="T83" s="74"/>
+      <c r="U83" s="74"/>
+      <c r="V83" s="74"/>
+      <c r="W83" s="74"/>
     </row>
     <row r="84" spans="2:23">
       <c r="B84" s="70" t="s">
@@ -5936,30 +5958,30 @@
       </c>
     </row>
     <row r="85" spans="2:23" ht="78.75" customHeight="1">
-      <c r="B85" s="73" t="s">
+      <c r="B85" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="C85" s="73"/>
-      <c r="D85" s="73"/>
-      <c r="E85" s="73"/>
-      <c r="F85" s="73"/>
-      <c r="G85" s="73"/>
-      <c r="H85" s="73"/>
-      <c r="I85" s="73"/>
-      <c r="J85" s="73"/>
-      <c r="K85" s="73"/>
-      <c r="L85" s="73"/>
-      <c r="M85" s="73"/>
-      <c r="N85" s="73"/>
-      <c r="O85" s="73"/>
-      <c r="P85" s="73"/>
-      <c r="Q85" s="73"/>
-      <c r="R85" s="73"/>
-      <c r="S85" s="73"/>
-      <c r="T85" s="73"/>
-      <c r="U85" s="73"/>
-      <c r="V85" s="73"/>
-      <c r="W85" s="73"/>
+      <c r="C85" s="74"/>
+      <c r="D85" s="74"/>
+      <c r="E85" s="74"/>
+      <c r="F85" s="74"/>
+      <c r="G85" s="74"/>
+      <c r="H85" s="74"/>
+      <c r="I85" s="74"/>
+      <c r="J85" s="74"/>
+      <c r="K85" s="74"/>
+      <c r="L85" s="74"/>
+      <c r="M85" s="74"/>
+      <c r="N85" s="74"/>
+      <c r="O85" s="74"/>
+      <c r="P85" s="74"/>
+      <c r="Q85" s="74"/>
+      <c r="R85" s="74"/>
+      <c r="S85" s="74"/>
+      <c r="T85" s="74"/>
+      <c r="U85" s="74"/>
+      <c r="V85" s="74"/>
+      <c r="W85" s="74"/>
     </row>
     <row r="86" spans="2:23">
       <c r="B86" s="70" t="s">
@@ -5967,30 +5989,30 @@
       </c>
     </row>
     <row r="87" spans="2:23" ht="61.5" customHeight="1">
-      <c r="B87" s="72" t="s">
+      <c r="B87" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="C87" s="72"/>
-      <c r="D87" s="72"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="72"/>
-      <c r="G87" s="72"/>
-      <c r="H87" s="72"/>
-      <c r="I87" s="72"/>
-      <c r="J87" s="72"/>
-      <c r="K87" s="72"/>
-      <c r="L87" s="72"/>
-      <c r="M87" s="72"/>
-      <c r="N87" s="72"/>
-      <c r="O87" s="72"/>
-      <c r="P87" s="72"/>
-      <c r="Q87" s="72"/>
-      <c r="R87" s="72"/>
-      <c r="S87" s="72"/>
-      <c r="T87" s="72"/>
-      <c r="U87" s="72"/>
-      <c r="V87" s="72"/>
-      <c r="W87" s="72"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="73"/>
+      <c r="E87" s="73"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="73"/>
+      <c r="H87" s="73"/>
+      <c r="I87" s="73"/>
+      <c r="J87" s="73"/>
+      <c r="K87" s="73"/>
+      <c r="L87" s="73"/>
+      <c r="M87" s="73"/>
+      <c r="N87" s="73"/>
+      <c r="O87" s="73"/>
+      <c r="P87" s="73"/>
+      <c r="Q87" s="73"/>
+      <c r="R87" s="73"/>
+      <c r="S87" s="73"/>
+      <c r="T87" s="73"/>
+      <c r="U87" s="73"/>
+      <c r="V87" s="73"/>
+      <c r="W87" s="73"/>
     </row>
     <row r="88" spans="2:23">
       <c r="B88" s="70" t="s">
@@ -5998,30 +6020,30 @@
       </c>
     </row>
     <row r="89" spans="2:23" ht="121.5" customHeight="1">
-      <c r="B89" s="73" t="s">
+      <c r="B89" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="C89" s="73"/>
-      <c r="D89" s="73"/>
-      <c r="E89" s="73"/>
-      <c r="F89" s="73"/>
-      <c r="G89" s="73"/>
-      <c r="H89" s="73"/>
-      <c r="I89" s="73"/>
-      <c r="J89" s="73"/>
-      <c r="K89" s="73"/>
-      <c r="L89" s="73"/>
-      <c r="M89" s="73"/>
-      <c r="N89" s="73"/>
-      <c r="O89" s="73"/>
-      <c r="P89" s="73"/>
-      <c r="Q89" s="73"/>
-      <c r="R89" s="73"/>
-      <c r="S89" s="73"/>
-      <c r="T89" s="73"/>
-      <c r="U89" s="73"/>
-      <c r="V89" s="73"/>
-      <c r="W89" s="73"/>
+      <c r="C89" s="74"/>
+      <c r="D89" s="74"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="74"/>
+      <c r="G89" s="74"/>
+      <c r="H89" s="74"/>
+      <c r="I89" s="74"/>
+      <c r="J89" s="74"/>
+      <c r="K89" s="74"/>
+      <c r="L89" s="74"/>
+      <c r="M89" s="74"/>
+      <c r="N89" s="74"/>
+      <c r="O89" s="74"/>
+      <c r="P89" s="74"/>
+      <c r="Q89" s="74"/>
+      <c r="R89" s="74"/>
+      <c r="S89" s="74"/>
+      <c r="T89" s="74"/>
+      <c r="U89" s="74"/>
+      <c r="V89" s="74"/>
+      <c r="W89" s="74"/>
     </row>
     <row r="90" spans="2:23">
       <c r="B90" s="70" t="s">
@@ -6029,56 +6051,56 @@
       </c>
     </row>
     <row r="91" spans="2:23" ht="44.25" customHeight="1">
-      <c r="B91" s="73" t="s">
+      <c r="B91" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="C91" s="73"/>
-      <c r="D91" s="73"/>
-      <c r="E91" s="73"/>
-      <c r="F91" s="73"/>
-      <c r="G91" s="73"/>
-      <c r="H91" s="73"/>
-      <c r="I91" s="73"/>
-      <c r="J91" s="73"/>
-      <c r="K91" s="73"/>
-      <c r="L91" s="73"/>
-      <c r="M91" s="73"/>
-      <c r="N91" s="73"/>
-      <c r="O91" s="73"/>
-      <c r="P91" s="73"/>
-      <c r="Q91" s="73"/>
-      <c r="R91" s="73"/>
-      <c r="S91" s="73"/>
-      <c r="T91" s="73"/>
-      <c r="U91" s="73"/>
-      <c r="V91" s="73"/>
-      <c r="W91" s="73"/>
+      <c r="C91" s="74"/>
+      <c r="D91" s="74"/>
+      <c r="E91" s="74"/>
+      <c r="F91" s="74"/>
+      <c r="G91" s="74"/>
+      <c r="H91" s="74"/>
+      <c r="I91" s="74"/>
+      <c r="J91" s="74"/>
+      <c r="K91" s="74"/>
+      <c r="L91" s="74"/>
+      <c r="M91" s="74"/>
+      <c r="N91" s="74"/>
+      <c r="O91" s="74"/>
+      <c r="P91" s="74"/>
+      <c r="Q91" s="74"/>
+      <c r="R91" s="74"/>
+      <c r="S91" s="74"/>
+      <c r="T91" s="74"/>
+      <c r="U91" s="74"/>
+      <c r="V91" s="74"/>
+      <c r="W91" s="74"/>
     </row>
     <row r="92" spans="2:23" ht="190.5" customHeight="1">
-      <c r="B92" s="73" t="s">
+      <c r="B92" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="C92" s="73"/>
-      <c r="D92" s="73"/>
-      <c r="E92" s="73"/>
-      <c r="F92" s="73"/>
-      <c r="G92" s="73"/>
-      <c r="H92" s="73"/>
-      <c r="I92" s="73"/>
-      <c r="J92" s="73"/>
-      <c r="K92" s="73"/>
-      <c r="L92" s="73"/>
-      <c r="M92" s="73"/>
-      <c r="N92" s="73"/>
-      <c r="O92" s="73"/>
-      <c r="P92" s="73"/>
-      <c r="Q92" s="73"/>
-      <c r="R92" s="73"/>
-      <c r="S92" s="73"/>
-      <c r="T92" s="73"/>
-      <c r="U92" s="73"/>
-      <c r="V92" s="73"/>
-      <c r="W92" s="73"/>
+      <c r="C92" s="74"/>
+      <c r="D92" s="74"/>
+      <c r="E92" s="74"/>
+      <c r="F92" s="74"/>
+      <c r="G92" s="74"/>
+      <c r="H92" s="74"/>
+      <c r="I92" s="74"/>
+      <c r="J92" s="74"/>
+      <c r="K92" s="74"/>
+      <c r="L92" s="74"/>
+      <c r="M92" s="74"/>
+      <c r="N92" s="74"/>
+      <c r="O92" s="74"/>
+      <c r="P92" s="74"/>
+      <c r="Q92" s="74"/>
+      <c r="R92" s="74"/>
+      <c r="S92" s="74"/>
+      <c r="T92" s="74"/>
+      <c r="U92" s="74"/>
+      <c r="V92" s="74"/>
+      <c r="W92" s="74"/>
     </row>
     <row r="93" spans="2:23">
       <c r="C93" s="70" t="s">
@@ -6086,29 +6108,29 @@
       </c>
     </row>
     <row r="94" spans="2:23" ht="134.25" customHeight="1">
-      <c r="C94" s="73" t="s">
+      <c r="C94" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="D94" s="73"/>
-      <c r="E94" s="73"/>
-      <c r="F94" s="73"/>
-      <c r="G94" s="73"/>
-      <c r="H94" s="73"/>
-      <c r="I94" s="73"/>
-      <c r="J94" s="73"/>
-      <c r="K94" s="73"/>
-      <c r="L94" s="73"/>
-      <c r="M94" s="73"/>
-      <c r="N94" s="73"/>
-      <c r="O94" s="73"/>
-      <c r="P94" s="73"/>
-      <c r="Q94" s="73"/>
-      <c r="R94" s="73"/>
-      <c r="S94" s="73"/>
-      <c r="T94" s="73"/>
-      <c r="U94" s="73"/>
-      <c r="V94" s="73"/>
-      <c r="W94" s="73"/>
+      <c r="D94" s="74"/>
+      <c r="E94" s="74"/>
+      <c r="F94" s="74"/>
+      <c r="G94" s="74"/>
+      <c r="H94" s="74"/>
+      <c r="I94" s="74"/>
+      <c r="J94" s="74"/>
+      <c r="K94" s="74"/>
+      <c r="L94" s="74"/>
+      <c r="M94" s="74"/>
+      <c r="N94" s="74"/>
+      <c r="O94" s="74"/>
+      <c r="P94" s="74"/>
+      <c r="Q94" s="74"/>
+      <c r="R94" s="74"/>
+      <c r="S94" s="74"/>
+      <c r="T94" s="74"/>
+      <c r="U94" s="74"/>
+      <c r="V94" s="74"/>
+      <c r="W94" s="74"/>
     </row>
     <row r="95" spans="2:23">
       <c r="C95" s="70" t="s">
@@ -6116,29 +6138,29 @@
       </c>
     </row>
     <row r="96" spans="2:23" ht="141" customHeight="1">
-      <c r="C96" s="73" t="s">
+      <c r="C96" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="D96" s="73"/>
-      <c r="E96" s="73"/>
-      <c r="F96" s="73"/>
-      <c r="G96" s="73"/>
-      <c r="H96" s="73"/>
-      <c r="I96" s="73"/>
-      <c r="J96" s="73"/>
-      <c r="K96" s="73"/>
-      <c r="L96" s="73"/>
-      <c r="M96" s="73"/>
-      <c r="N96" s="73"/>
-      <c r="O96" s="73"/>
-      <c r="P96" s="73"/>
-      <c r="Q96" s="73"/>
-      <c r="R96" s="73"/>
-      <c r="S96" s="73"/>
-      <c r="T96" s="73"/>
-      <c r="U96" s="73"/>
-      <c r="V96" s="73"/>
-      <c r="W96" s="73"/>
+      <c r="D96" s="74"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="74"/>
+      <c r="H96" s="74"/>
+      <c r="I96" s="74"/>
+      <c r="J96" s="74"/>
+      <c r="K96" s="74"/>
+      <c r="L96" s="74"/>
+      <c r="M96" s="74"/>
+      <c r="N96" s="74"/>
+      <c r="O96" s="74"/>
+      <c r="P96" s="74"/>
+      <c r="Q96" s="74"/>
+      <c r="R96" s="74"/>
+      <c r="S96" s="74"/>
+      <c r="T96" s="74"/>
+      <c r="U96" s="74"/>
+      <c r="V96" s="74"/>
+      <c r="W96" s="74"/>
     </row>
     <row r="97" spans="3:23">
       <c r="C97" s="70" t="s">
@@ -6146,25 +6168,25 @@
       </c>
     </row>
     <row r="98" spans="3:23" ht="16.5" customHeight="1">
-      <c r="C98" s="73" t="s">
+      <c r="C98" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="D98" s="73"/>
-      <c r="E98" s="73"/>
-      <c r="F98" s="73"/>
-      <c r="G98" s="73"/>
-      <c r="H98" s="73"/>
-      <c r="I98" s="73"/>
-      <c r="J98" s="73"/>
-      <c r="K98" s="73"/>
-      <c r="L98" s="73"/>
-      <c r="M98" s="73"/>
-      <c r="N98" s="73"/>
-      <c r="O98" s="73"/>
-      <c r="P98" s="73"/>
-      <c r="Q98" s="73"/>
-      <c r="R98" s="73"/>
-      <c r="S98" s="73"/>
+      <c r="D98" s="74"/>
+      <c r="E98" s="74"/>
+      <c r="F98" s="74"/>
+      <c r="G98" s="74"/>
+      <c r="H98" s="74"/>
+      <c r="I98" s="74"/>
+      <c r="J98" s="74"/>
+      <c r="K98" s="74"/>
+      <c r="L98" s="74"/>
+      <c r="M98" s="74"/>
+      <c r="N98" s="74"/>
+      <c r="O98" s="74"/>
+      <c r="P98" s="74"/>
+      <c r="Q98" s="74"/>
+      <c r="R98" s="74"/>
+      <c r="S98" s="74"/>
     </row>
     <row r="99" spans="3:23">
       <c r="C99" s="71" t="s">
@@ -6172,14 +6194,14 @@
       </c>
     </row>
     <row r="100" spans="3:23" ht="16.5" customHeight="1">
-      <c r="C100" s="73" t="s">
+      <c r="C100" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="D100" s="73"/>
-      <c r="E100" s="73"/>
-      <c r="F100" s="73"/>
-      <c r="G100" s="73"/>
-      <c r="H100" s="73"/>
+      <c r="D100" s="74"/>
+      <c r="E100" s="74"/>
+      <c r="F100" s="74"/>
+      <c r="G100" s="74"/>
+      <c r="H100" s="74"/>
     </row>
     <row r="101" spans="3:23">
       <c r="C101" s="71" t="s">
@@ -6187,29 +6209,29 @@
       </c>
     </row>
     <row r="102" spans="3:23" ht="16.5" customHeight="1">
-      <c r="C102" s="73" t="s">
+      <c r="C102" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="D102" s="73"/>
-      <c r="E102" s="73"/>
-      <c r="F102" s="73"/>
-      <c r="G102" s="73"/>
-      <c r="H102" s="73"/>
-      <c r="I102" s="73"/>
-      <c r="J102" s="73"/>
-      <c r="K102" s="73"/>
-      <c r="L102" s="73"/>
-      <c r="M102" s="73"/>
-      <c r="N102" s="73"/>
-      <c r="O102" s="73"/>
-      <c r="P102" s="73"/>
-      <c r="Q102" s="73"/>
-      <c r="R102" s="73"/>
-      <c r="S102" s="73"/>
-      <c r="T102" s="73"/>
-      <c r="U102" s="73"/>
-      <c r="V102" s="73"/>
-      <c r="W102" s="73"/>
+      <c r="D102" s="74"/>
+      <c r="E102" s="74"/>
+      <c r="F102" s="74"/>
+      <c r="G102" s="74"/>
+      <c r="H102" s="74"/>
+      <c r="I102" s="74"/>
+      <c r="J102" s="74"/>
+      <c r="K102" s="74"/>
+      <c r="L102" s="74"/>
+      <c r="M102" s="74"/>
+      <c r="N102" s="74"/>
+      <c r="O102" s="74"/>
+      <c r="P102" s="74"/>
+      <c r="Q102" s="74"/>
+      <c r="R102" s="74"/>
+      <c r="S102" s="74"/>
+      <c r="T102" s="74"/>
+      <c r="U102" s="74"/>
+      <c r="V102" s="74"/>
+      <c r="W102" s="74"/>
     </row>
     <row r="103" spans="3:23">
       <c r="C103" s="71" t="s">
@@ -6217,29 +6239,29 @@
       </c>
     </row>
     <row r="104" spans="3:23" ht="28.5" customHeight="1">
-      <c r="C104" s="73" t="s">
+      <c r="C104" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="D104" s="73"/>
-      <c r="E104" s="73"/>
-      <c r="F104" s="73"/>
-      <c r="G104" s="73"/>
-      <c r="H104" s="73"/>
-      <c r="I104" s="73"/>
-      <c r="J104" s="73"/>
-      <c r="K104" s="73"/>
-      <c r="L104" s="73"/>
-      <c r="M104" s="73"/>
-      <c r="N104" s="73"/>
-      <c r="O104" s="73"/>
-      <c r="P104" s="73"/>
-      <c r="Q104" s="73"/>
-      <c r="R104" s="73"/>
-      <c r="S104" s="73"/>
-      <c r="T104" s="73"/>
-      <c r="U104" s="73"/>
-      <c r="V104" s="73"/>
-      <c r="W104" s="73"/>
+      <c r="D104" s="74"/>
+      <c r="E104" s="74"/>
+      <c r="F104" s="74"/>
+      <c r="G104" s="74"/>
+      <c r="H104" s="74"/>
+      <c r="I104" s="74"/>
+      <c r="J104" s="74"/>
+      <c r="K104" s="74"/>
+      <c r="L104" s="74"/>
+      <c r="M104" s="74"/>
+      <c r="N104" s="74"/>
+      <c r="O104" s="74"/>
+      <c r="P104" s="74"/>
+      <c r="Q104" s="74"/>
+      <c r="R104" s="74"/>
+      <c r="S104" s="74"/>
+      <c r="T104" s="74"/>
+      <c r="U104" s="74"/>
+      <c r="V104" s="74"/>
+      <c r="W104" s="74"/>
     </row>
     <row r="105" spans="3:23">
       <c r="C105" s="71" t="s">
@@ -6247,29 +6269,29 @@
       </c>
     </row>
     <row r="106" spans="3:23" ht="17.25" customHeight="1">
-      <c r="C106" s="73" t="s">
+      <c r="C106" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="D106" s="73"/>
-      <c r="E106" s="73"/>
-      <c r="F106" s="73"/>
-      <c r="G106" s="73"/>
-      <c r="H106" s="73"/>
-      <c r="I106" s="73"/>
-      <c r="J106" s="73"/>
-      <c r="K106" s="73"/>
-      <c r="L106" s="73"/>
-      <c r="M106" s="73"/>
-      <c r="N106" s="73"/>
-      <c r="O106" s="73"/>
-      <c r="P106" s="73"/>
-      <c r="Q106" s="73"/>
-      <c r="R106" s="73"/>
-      <c r="S106" s="73"/>
-      <c r="T106" s="73"/>
-      <c r="U106" s="73"/>
-      <c r="V106" s="73"/>
-      <c r="W106" s="73"/>
+      <c r="D106" s="74"/>
+      <c r="E106" s="74"/>
+      <c r="F106" s="74"/>
+      <c r="G106" s="74"/>
+      <c r="H106" s="74"/>
+      <c r="I106" s="74"/>
+      <c r="J106" s="74"/>
+      <c r="K106" s="74"/>
+      <c r="L106" s="74"/>
+      <c r="M106" s="74"/>
+      <c r="N106" s="74"/>
+      <c r="O106" s="74"/>
+      <c r="P106" s="74"/>
+      <c r="Q106" s="74"/>
+      <c r="R106" s="74"/>
+      <c r="S106" s="74"/>
+      <c r="T106" s="74"/>
+      <c r="U106" s="74"/>
+      <c r="V106" s="74"/>
+      <c r="W106" s="74"/>
     </row>
     <row r="107" spans="3:23">
       <c r="C107" s="71" t="s">
@@ -6277,22 +6299,22 @@
       </c>
     </row>
     <row r="108" spans="3:23" ht="19.5" customHeight="1">
-      <c r="C108" s="73" t="s">
+      <c r="C108" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D108" s="73"/>
-      <c r="E108" s="73"/>
-      <c r="F108" s="73"/>
-      <c r="G108" s="73"/>
-      <c r="H108" s="73"/>
-      <c r="I108" s="73"/>
-      <c r="J108" s="73"/>
-      <c r="K108" s="73"/>
-      <c r="L108" s="73"/>
-      <c r="M108" s="73"/>
-      <c r="N108" s="73"/>
-      <c r="O108" s="73"/>
-      <c r="P108" s="73"/>
+      <c r="D108" s="74"/>
+      <c r="E108" s="74"/>
+      <c r="F108" s="74"/>
+      <c r="G108" s="74"/>
+      <c r="H108" s="74"/>
+      <c r="I108" s="74"/>
+      <c r="J108" s="74"/>
+      <c r="K108" s="74"/>
+      <c r="L108" s="74"/>
+      <c r="M108" s="74"/>
+      <c r="N108" s="74"/>
+      <c r="O108" s="74"/>
+      <c r="P108" s="74"/>
     </row>
     <row r="109" spans="3:23">
       <c r="C109" s="71" t="s">
@@ -6300,29 +6322,29 @@
       </c>
     </row>
     <row r="110" spans="3:23" ht="27" customHeight="1">
-      <c r="C110" s="73" t="s">
+      <c r="C110" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="D110" s="73"/>
-      <c r="E110" s="73"/>
-      <c r="F110" s="73"/>
-      <c r="G110" s="73"/>
-      <c r="H110" s="73"/>
-      <c r="I110" s="73"/>
-      <c r="J110" s="73"/>
-      <c r="K110" s="73"/>
-      <c r="L110" s="73"/>
-      <c r="M110" s="73"/>
-      <c r="N110" s="73"/>
-      <c r="O110" s="73"/>
-      <c r="P110" s="73"/>
-      <c r="Q110" s="73"/>
-      <c r="R110" s="73"/>
-      <c r="S110" s="73"/>
-      <c r="T110" s="73"/>
-      <c r="U110" s="73"/>
-      <c r="V110" s="73"/>
-      <c r="W110" s="73"/>
+      <c r="D110" s="74"/>
+      <c r="E110" s="74"/>
+      <c r="F110" s="74"/>
+      <c r="G110" s="74"/>
+      <c r="H110" s="74"/>
+      <c r="I110" s="74"/>
+      <c r="J110" s="74"/>
+      <c r="K110" s="74"/>
+      <c r="L110" s="74"/>
+      <c r="M110" s="74"/>
+      <c r="N110" s="74"/>
+      <c r="O110" s="74"/>
+      <c r="P110" s="74"/>
+      <c r="Q110" s="74"/>
+      <c r="R110" s="74"/>
+      <c r="S110" s="74"/>
+      <c r="T110" s="74"/>
+      <c r="U110" s="74"/>
+      <c r="V110" s="74"/>
+      <c r="W110" s="74"/>
     </row>
     <row r="111" spans="3:23">
       <c r="C111" s="71" t="s">
@@ -6330,29 +6352,29 @@
       </c>
     </row>
     <row r="112" spans="3:23" ht="29.25" customHeight="1">
-      <c r="C112" s="73" t="s">
+      <c r="C112" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="D112" s="73"/>
-      <c r="E112" s="73"/>
-      <c r="F112" s="73"/>
-      <c r="G112" s="73"/>
-      <c r="H112" s="73"/>
-      <c r="I112" s="73"/>
-      <c r="J112" s="73"/>
-      <c r="K112" s="73"/>
-      <c r="L112" s="73"/>
-      <c r="M112" s="73"/>
-      <c r="N112" s="73"/>
-      <c r="O112" s="73"/>
-      <c r="P112" s="73"/>
-      <c r="Q112" s="73"/>
-      <c r="R112" s="73"/>
-      <c r="S112" s="73"/>
-      <c r="T112" s="73"/>
-      <c r="U112" s="73"/>
-      <c r="V112" s="73"/>
-      <c r="W112" s="73"/>
+      <c r="D112" s="74"/>
+      <c r="E112" s="74"/>
+      <c r="F112" s="74"/>
+      <c r="G112" s="74"/>
+      <c r="H112" s="74"/>
+      <c r="I112" s="74"/>
+      <c r="J112" s="74"/>
+      <c r="K112" s="74"/>
+      <c r="L112" s="74"/>
+      <c r="M112" s="74"/>
+      <c r="N112" s="74"/>
+      <c r="O112" s="74"/>
+      <c r="P112" s="74"/>
+      <c r="Q112" s="74"/>
+      <c r="R112" s="74"/>
+      <c r="S112" s="74"/>
+      <c r="T112" s="74"/>
+      <c r="U112" s="74"/>
+      <c r="V112" s="74"/>
+      <c r="W112" s="74"/>
     </row>
     <row r="113" spans="3:24">
       <c r="C113" s="71" t="s">
@@ -6360,29 +6382,29 @@
       </c>
     </row>
     <row r="114" spans="3:24" ht="27.75" customHeight="1">
-      <c r="C114" s="73" t="s">
+      <c r="C114" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="D114" s="73"/>
-      <c r="E114" s="73"/>
-      <c r="F114" s="73"/>
-      <c r="G114" s="73"/>
-      <c r="H114" s="73"/>
-      <c r="I114" s="73"/>
-      <c r="J114" s="73"/>
-      <c r="K114" s="73"/>
-      <c r="L114" s="73"/>
-      <c r="M114" s="73"/>
-      <c r="N114" s="73"/>
-      <c r="O114" s="73"/>
-      <c r="P114" s="73"/>
-      <c r="Q114" s="73"/>
-      <c r="R114" s="73"/>
-      <c r="S114" s="73"/>
-      <c r="T114" s="73"/>
-      <c r="U114" s="73"/>
-      <c r="V114" s="73"/>
-      <c r="W114" s="73"/>
+      <c r="D114" s="74"/>
+      <c r="E114" s="74"/>
+      <c r="F114" s="74"/>
+      <c r="G114" s="74"/>
+      <c r="H114" s="74"/>
+      <c r="I114" s="74"/>
+      <c r="J114" s="74"/>
+      <c r="K114" s="74"/>
+      <c r="L114" s="74"/>
+      <c r="M114" s="74"/>
+      <c r="N114" s="74"/>
+      <c r="O114" s="74"/>
+      <c r="P114" s="74"/>
+      <c r="Q114" s="74"/>
+      <c r="R114" s="74"/>
+      <c r="S114" s="74"/>
+      <c r="T114" s="74"/>
+      <c r="U114" s="74"/>
+      <c r="V114" s="74"/>
+      <c r="W114" s="74"/>
     </row>
     <row r="115" spans="3:24">
       <c r="C115" s="71" t="s">
@@ -6390,30 +6412,30 @@
       </c>
     </row>
     <row r="116" spans="3:24" ht="46.5" customHeight="1">
-      <c r="C116" s="72" t="s">
+      <c r="C116" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="D116" s="72"/>
-      <c r="E116" s="72"/>
-      <c r="F116" s="72"/>
-      <c r="G116" s="72"/>
-      <c r="H116" s="72"/>
-      <c r="I116" s="72"/>
-      <c r="J116" s="72"/>
-      <c r="K116" s="72"/>
-      <c r="L116" s="72"/>
-      <c r="M116" s="72"/>
-      <c r="N116" s="72"/>
-      <c r="O116" s="72"/>
-      <c r="P116" s="72"/>
-      <c r="Q116" s="72"/>
-      <c r="R116" s="72"/>
-      <c r="S116" s="72"/>
-      <c r="T116" s="72"/>
-      <c r="U116" s="72"/>
-      <c r="V116" s="72"/>
-      <c r="W116" s="72"/>
-      <c r="X116" s="72"/>
+      <c r="D116" s="73"/>
+      <c r="E116" s="73"/>
+      <c r="F116" s="73"/>
+      <c r="G116" s="73"/>
+      <c r="H116" s="73"/>
+      <c r="I116" s="73"/>
+      <c r="J116" s="73"/>
+      <c r="K116" s="73"/>
+      <c r="L116" s="73"/>
+      <c r="M116" s="73"/>
+      <c r="N116" s="73"/>
+      <c r="O116" s="73"/>
+      <c r="P116" s="73"/>
+      <c r="Q116" s="73"/>
+      <c r="R116" s="73"/>
+      <c r="S116" s="73"/>
+      <c r="T116" s="73"/>
+      <c r="U116" s="73"/>
+      <c r="V116" s="73"/>
+      <c r="W116" s="73"/>
+      <c r="X116" s="73"/>
     </row>
     <row r="118" spans="3:24">
       <c r="C118" s="70" t="s">
@@ -6426,29 +6448,29 @@
       </c>
     </row>
     <row r="120" spans="3:24" ht="84.75" customHeight="1">
-      <c r="C120" s="73" t="s">
+      <c r="C120" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="D120" s="73"/>
-      <c r="E120" s="73"/>
-      <c r="F120" s="73"/>
-      <c r="G120" s="73"/>
-      <c r="H120" s="73"/>
-      <c r="I120" s="73"/>
-      <c r="J120" s="73"/>
-      <c r="K120" s="73"/>
-      <c r="L120" s="73"/>
-      <c r="M120" s="73"/>
-      <c r="N120" s="73"/>
-      <c r="O120" s="73"/>
-      <c r="P120" s="73"/>
-      <c r="Q120" s="73"/>
-      <c r="R120" s="73"/>
-      <c r="S120" s="73"/>
-      <c r="T120" s="73"/>
-      <c r="U120" s="73"/>
-      <c r="V120" s="73"/>
-      <c r="W120" s="73"/>
+      <c r="D120" s="74"/>
+      <c r="E120" s="74"/>
+      <c r="F120" s="74"/>
+      <c r="G120" s="74"/>
+      <c r="H120" s="74"/>
+      <c r="I120" s="74"/>
+      <c r="J120" s="74"/>
+      <c r="K120" s="74"/>
+      <c r="L120" s="74"/>
+      <c r="M120" s="74"/>
+      <c r="N120" s="74"/>
+      <c r="O120" s="74"/>
+      <c r="P120" s="74"/>
+      <c r="Q120" s="74"/>
+      <c r="R120" s="74"/>
+      <c r="S120" s="74"/>
+      <c r="T120" s="74"/>
+      <c r="U120" s="74"/>
+      <c r="V120" s="74"/>
+      <c r="W120" s="74"/>
     </row>
     <row r="121" spans="3:24">
       <c r="C121" s="70" t="s">
@@ -6456,52 +6478,52 @@
       </c>
     </row>
     <row r="122" spans="3:24" ht="133.5" customHeight="1">
-      <c r="C122" s="73" t="s">
+      <c r="C122" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="D122" s="73"/>
-      <c r="E122" s="73"/>
-      <c r="F122" s="73"/>
-      <c r="G122" s="73"/>
-      <c r="H122" s="73"/>
-      <c r="I122" s="73"/>
-      <c r="J122" s="73"/>
-      <c r="K122" s="73"/>
-      <c r="L122" s="73"/>
-      <c r="M122" s="73"/>
-      <c r="N122" s="73"/>
-      <c r="O122" s="73"/>
-      <c r="P122" s="73"/>
-      <c r="Q122" s="73"/>
-      <c r="R122" s="73"/>
-      <c r="S122" s="73"/>
-      <c r="T122" s="73"/>
-      <c r="U122" s="73"/>
-      <c r="V122" s="73"/>
-      <c r="W122" s="73"/>
+      <c r="D122" s="74"/>
+      <c r="E122" s="74"/>
+      <c r="F122" s="74"/>
+      <c r="G122" s="74"/>
+      <c r="H122" s="74"/>
+      <c r="I122" s="74"/>
+      <c r="J122" s="74"/>
+      <c r="K122" s="74"/>
+      <c r="L122" s="74"/>
+      <c r="M122" s="74"/>
+      <c r="N122" s="74"/>
+      <c r="O122" s="74"/>
+      <c r="P122" s="74"/>
+      <c r="Q122" s="74"/>
+      <c r="R122" s="74"/>
+      <c r="S122" s="74"/>
+      <c r="T122" s="74"/>
+      <c r="U122" s="74"/>
+      <c r="V122" s="74"/>
+      <c r="W122" s="74"/>
     </row>
     <row r="123" spans="3:24" ht="43.5" customHeight="1">
-      <c r="C123" s="73" t="s">
+      <c r="C123" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="D123" s="73"/>
-      <c r="E123" s="73"/>
-      <c r="F123" s="73"/>
-      <c r="G123" s="73"/>
-      <c r="H123" s="73"/>
-      <c r="I123" s="73"/>
-      <c r="J123" s="73"/>
-      <c r="K123" s="73"/>
-      <c r="L123" s="73"/>
-      <c r="M123" s="73"/>
-      <c r="N123" s="73"/>
-      <c r="O123" s="73"/>
-      <c r="P123" s="73"/>
-      <c r="Q123" s="73"/>
-      <c r="R123" s="73"/>
-      <c r="S123" s="73"/>
-      <c r="T123" s="73"/>
-      <c r="U123" s="73"/>
+      <c r="D123" s="74"/>
+      <c r="E123" s="74"/>
+      <c r="F123" s="74"/>
+      <c r="G123" s="74"/>
+      <c r="H123" s="74"/>
+      <c r="I123" s="74"/>
+      <c r="J123" s="74"/>
+      <c r="K123" s="74"/>
+      <c r="L123" s="74"/>
+      <c r="M123" s="74"/>
+      <c r="N123" s="74"/>
+      <c r="O123" s="74"/>
+      <c r="P123" s="74"/>
+      <c r="Q123" s="74"/>
+      <c r="R123" s="74"/>
+      <c r="S123" s="74"/>
+      <c r="T123" s="74"/>
+      <c r="U123" s="74"/>
     </row>
     <row r="124" spans="3:24">
       <c r="C124" s="70" t="s">
@@ -6509,29 +6531,29 @@
       </c>
     </row>
     <row r="125" spans="3:24" ht="93" customHeight="1">
-      <c r="C125" s="73" t="s">
+      <c r="C125" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="D125" s="73"/>
-      <c r="E125" s="73"/>
-      <c r="F125" s="73"/>
-      <c r="G125" s="73"/>
-      <c r="H125" s="73"/>
-      <c r="I125" s="73"/>
-      <c r="J125" s="73"/>
-      <c r="K125" s="73"/>
-      <c r="L125" s="73"/>
-      <c r="M125" s="73"/>
-      <c r="N125" s="73"/>
-      <c r="O125" s="73"/>
-      <c r="P125" s="73"/>
-      <c r="Q125" s="73"/>
-      <c r="R125" s="73"/>
-      <c r="S125" s="73"/>
-      <c r="T125" s="73"/>
-      <c r="U125" s="73"/>
-      <c r="V125" s="73"/>
-      <c r="W125" s="73"/>
+      <c r="D125" s="74"/>
+      <c r="E125" s="74"/>
+      <c r="F125" s="74"/>
+      <c r="G125" s="74"/>
+      <c r="H125" s="74"/>
+      <c r="I125" s="74"/>
+      <c r="J125" s="74"/>
+      <c r="K125" s="74"/>
+      <c r="L125" s="74"/>
+      <c r="M125" s="74"/>
+      <c r="N125" s="74"/>
+      <c r="O125" s="74"/>
+      <c r="P125" s="74"/>
+      <c r="Q125" s="74"/>
+      <c r="R125" s="74"/>
+      <c r="S125" s="74"/>
+      <c r="T125" s="74"/>
+      <c r="U125" s="74"/>
+      <c r="V125" s="74"/>
+      <c r="W125" s="74"/>
     </row>
     <row r="126" spans="3:24">
       <c r="C126" s="70" t="s">
@@ -6539,29 +6561,29 @@
       </c>
     </row>
     <row r="127" spans="3:24" ht="69.75" customHeight="1">
-      <c r="C127" s="72" t="s">
+      <c r="C127" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="D127" s="72"/>
-      <c r="E127" s="72"/>
-      <c r="F127" s="72"/>
-      <c r="G127" s="72"/>
-      <c r="H127" s="72"/>
-      <c r="I127" s="72"/>
-      <c r="J127" s="72"/>
-      <c r="K127" s="72"/>
-      <c r="L127" s="72"/>
-      <c r="M127" s="72"/>
-      <c r="N127" s="72"/>
-      <c r="O127" s="72"/>
-      <c r="P127" s="72"/>
-      <c r="Q127" s="72"/>
-      <c r="R127" s="72"/>
-      <c r="S127" s="72"/>
-      <c r="T127" s="72"/>
-      <c r="U127" s="72"/>
-      <c r="V127" s="72"/>
-      <c r="W127" s="72"/>
+      <c r="D127" s="73"/>
+      <c r="E127" s="73"/>
+      <c r="F127" s="73"/>
+      <c r="G127" s="73"/>
+      <c r="H127" s="73"/>
+      <c r="I127" s="73"/>
+      <c r="J127" s="73"/>
+      <c r="K127" s="73"/>
+      <c r="L127" s="73"/>
+      <c r="M127" s="73"/>
+      <c r="N127" s="73"/>
+      <c r="O127" s="73"/>
+      <c r="P127" s="73"/>
+      <c r="Q127" s="73"/>
+      <c r="R127" s="73"/>
+      <c r="S127" s="73"/>
+      <c r="T127" s="73"/>
+      <c r="U127" s="73"/>
+      <c r="V127" s="73"/>
+      <c r="W127" s="73"/>
     </row>
     <row r="128" spans="3:24">
       <c r="C128" s="70" t="s">
@@ -6569,29 +6591,29 @@
       </c>
     </row>
     <row r="129" spans="3:23" ht="147" customHeight="1">
-      <c r="C129" s="73" t="s">
+      <c r="C129" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="D129" s="73"/>
-      <c r="E129" s="73"/>
-      <c r="F129" s="73"/>
-      <c r="G129" s="73"/>
-      <c r="H129" s="73"/>
-      <c r="I129" s="73"/>
-      <c r="J129" s="73"/>
-      <c r="K129" s="73"/>
-      <c r="L129" s="73"/>
-      <c r="M129" s="73"/>
-      <c r="N129" s="73"/>
-      <c r="O129" s="73"/>
-      <c r="P129" s="73"/>
-      <c r="Q129" s="73"/>
-      <c r="R129" s="73"/>
-      <c r="S129" s="73"/>
-      <c r="T129" s="73"/>
-      <c r="U129" s="73"/>
-      <c r="V129" s="73"/>
-      <c r="W129" s="73"/>
+      <c r="D129" s="74"/>
+      <c r="E129" s="74"/>
+      <c r="F129" s="74"/>
+      <c r="G129" s="74"/>
+      <c r="H129" s="74"/>
+      <c r="I129" s="74"/>
+      <c r="J129" s="74"/>
+      <c r="K129" s="74"/>
+      <c r="L129" s="74"/>
+      <c r="M129" s="74"/>
+      <c r="N129" s="74"/>
+      <c r="O129" s="74"/>
+      <c r="P129" s="74"/>
+      <c r="Q129" s="74"/>
+      <c r="R129" s="74"/>
+      <c r="S129" s="74"/>
+      <c r="T129" s="74"/>
+      <c r="U129" s="74"/>
+      <c r="V129" s="74"/>
+      <c r="W129" s="74"/>
     </row>
     <row r="130" spans="3:23">
       <c r="C130" s="70" t="s">
@@ -6599,54 +6621,54 @@
       </c>
     </row>
     <row r="131" spans="3:23" ht="26.25" customHeight="1">
-      <c r="C131" s="73" t="s">
+      <c r="C131" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="D131" s="73"/>
-      <c r="E131" s="73"/>
-      <c r="F131" s="73"/>
-      <c r="G131" s="73"/>
-      <c r="H131" s="73"/>
-      <c r="I131" s="73"/>
-      <c r="J131" s="73"/>
-      <c r="K131" s="73"/>
-      <c r="L131" s="73"/>
-      <c r="M131" s="73"/>
-      <c r="N131" s="73"/>
-      <c r="O131" s="73"/>
-      <c r="P131" s="73"/>
-      <c r="Q131" s="73"/>
-      <c r="R131" s="73"/>
-      <c r="S131" s="73"/>
-      <c r="T131" s="73"/>
-      <c r="U131" s="73"/>
-      <c r="V131" s="73"/>
-      <c r="W131" s="73"/>
+      <c r="D131" s="74"/>
+      <c r="E131" s="74"/>
+      <c r="F131" s="74"/>
+      <c r="G131" s="74"/>
+      <c r="H131" s="74"/>
+      <c r="I131" s="74"/>
+      <c r="J131" s="74"/>
+      <c r="K131" s="74"/>
+      <c r="L131" s="74"/>
+      <c r="M131" s="74"/>
+      <c r="N131" s="74"/>
+      <c r="O131" s="74"/>
+      <c r="P131" s="74"/>
+      <c r="Q131" s="74"/>
+      <c r="R131" s="74"/>
+      <c r="S131" s="74"/>
+      <c r="T131" s="74"/>
+      <c r="U131" s="74"/>
+      <c r="V131" s="74"/>
+      <c r="W131" s="74"/>
     </row>
     <row r="132" spans="3:23" ht="249" customHeight="1">
-      <c r="C132" s="73" t="s">
+      <c r="C132" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="D132" s="73"/>
-      <c r="E132" s="73"/>
-      <c r="F132" s="73"/>
-      <c r="G132" s="73"/>
-      <c r="H132" s="73"/>
-      <c r="I132" s="73"/>
-      <c r="J132" s="73"/>
-      <c r="K132" s="73"/>
-      <c r="L132" s="73"/>
-      <c r="M132" s="73"/>
-      <c r="N132" s="73"/>
-      <c r="O132" s="73"/>
-      <c r="P132" s="73"/>
-      <c r="Q132" s="73"/>
-      <c r="R132" s="73"/>
-      <c r="S132" s="73"/>
-      <c r="T132" s="73"/>
-      <c r="U132" s="73"/>
-      <c r="V132" s="73"/>
-      <c r="W132" s="73"/>
+      <c r="D132" s="74"/>
+      <c r="E132" s="74"/>
+      <c r="F132" s="74"/>
+      <c r="G132" s="74"/>
+      <c r="H132" s="74"/>
+      <c r="I132" s="74"/>
+      <c r="J132" s="74"/>
+      <c r="K132" s="74"/>
+      <c r="L132" s="74"/>
+      <c r="M132" s="74"/>
+      <c r="N132" s="74"/>
+      <c r="O132" s="74"/>
+      <c r="P132" s="74"/>
+      <c r="Q132" s="74"/>
+      <c r="R132" s="74"/>
+      <c r="S132" s="74"/>
+      <c r="T132" s="74"/>
+      <c r="U132" s="74"/>
+      <c r="V132" s="74"/>
+      <c r="W132" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="63">
@@ -6726,15 +6748,15 @@
   </sheetPr>
   <dimension ref="A1:AW303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM20" sqref="AM20"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="8" customWidth="1"/>
     <col min="2" max="4" width="35" style="8" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="53" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="53" customWidth="1"/>
     <col min="6" max="6" width="2.7109375" style="41" customWidth="1"/>
     <col min="7" max="7" width="3.7109375" style="53" customWidth="1"/>
     <col min="8" max="8" width="3" style="8" customWidth="1"/>
@@ -6759,7 +6781,7 @@
     <col min="27" max="27" width="4.85546875" style="8" customWidth="1"/>
     <col min="28" max="28" width="1.85546875" style="8" customWidth="1"/>
     <col min="29" max="29" width="5.140625" style="8" customWidth="1"/>
-    <col min="30" max="30" width="2" style="53" customWidth="1"/>
+    <col min="30" max="30" width="17" style="53" customWidth="1"/>
     <col min="31" max="31" width="4.85546875" style="8" customWidth="1"/>
     <col min="32" max="32" width="1.42578125" style="8" customWidth="1"/>
     <col min="33" max="16384" width="10.28515625" style="8"/>
@@ -6948,51 +6970,51 @@
       <c r="AQ4" s="9"/>
     </row>
     <row r="5" spans="2:43" ht="27.75" customHeight="1">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="84" t="s">
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="74" t="s">
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="74" t="s">
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="94" t="s">
+      <c r="P5" s="76"/>
+      <c r="Q5" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="95" t="s">
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="95" t="s">
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="95"/>
-      <c r="AF5" s="95"/>
+      <c r="AB5" s="97"/>
+      <c r="AC5" s="97"/>
+      <c r="AD5" s="97"/>
+      <c r="AE5" s="97"/>
+      <c r="AF5" s="97"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
@@ -7006,41 +7028,41 @@
       <c r="AQ5" s="9"/>
     </row>
     <row r="6" spans="2:43" ht="30.75" customHeight="1">
-      <c r="B6" s="81"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="96" t="s">
+      <c r="B6" s="82"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="96"/>
-      <c r="U6" s="97" t="s">
+      <c r="R6" s="98"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="V6" s="97"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="95"/>
-      <c r="Y6" s="95"/>
-      <c r="Z6" s="95"/>
-      <c r="AA6" s="95"/>
-      <c r="AB6" s="95"/>
-      <c r="AC6" s="95"/>
-      <c r="AD6" s="95"/>
-      <c r="AE6" s="95"/>
-      <c r="AF6" s="95"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="97"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="97"/>
+      <c r="AA6" s="97"/>
+      <c r="AB6" s="97"/>
+      <c r="AC6" s="97"/>
+      <c r="AD6" s="97"/>
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="97"/>
       <c r="AG6" s="9"/>
       <c r="AH6" s="9"/>
       <c r="AI6" s="9"/>
@@ -7054,65 +7076,65 @@
       <c r="AQ6" s="9"/>
     </row>
     <row r="7" spans="2:43" ht="45.75" customHeight="1">
-      <c r="B7" s="81"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="90" t="s">
+      <c r="B7" s="82"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="91" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="91"/>
-      <c r="G7" s="90" t="s">
+      <c r="F7" s="92"/>
+      <c r="G7" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="90" t="s">
+      <c r="H7" s="92"/>
+      <c r="I7" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="92" t="s">
+      <c r="J7" s="92"/>
+      <c r="K7" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="L7" s="93"/>
-      <c r="M7" s="92" t="s">
+      <c r="L7" s="94"/>
+      <c r="M7" s="93" t="s">
         <v>135</v>
       </c>
-      <c r="N7" s="93"/>
-      <c r="O7" s="78" t="s">
+      <c r="N7" s="94"/>
+      <c r="O7" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="106" t="s">
+      <c r="P7" s="80"/>
+      <c r="Q7" s="108" t="s">
         <v>136</v>
       </c>
-      <c r="R7" s="107"/>
-      <c r="S7" s="92" t="s">
+      <c r="R7" s="109"/>
+      <c r="S7" s="93" t="s">
         <v>137</v>
       </c>
-      <c r="T7" s="93"/>
-      <c r="U7" s="92" t="s">
+      <c r="T7" s="94"/>
+      <c r="U7" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="V7" s="93"/>
-      <c r="W7" s="98" t="s">
+      <c r="V7" s="94"/>
+      <c r="W7" s="100" t="s">
         <v>132</v>
       </c>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="108" t="s">
+      <c r="X7" s="100"/>
+      <c r="Y7" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="98" t="s">
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="AB7" s="98"/>
-      <c r="AC7" s="98" t="s">
+      <c r="AB7" s="100"/>
+      <c r="AC7" s="100" t="s">
         <v>132</v>
       </c>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98" t="s">
+      <c r="AD7" s="100"/>
+      <c r="AE7" s="100" t="s">
         <v>133</v>
       </c>
-      <c r="AF7" s="98"/>
+      <c r="AF7" s="100"/>
       <c r="AG7" s="9"/>
       <c r="AH7" s="9"/>
       <c r="AI7" s="9"/>
@@ -7126,53 +7148,53 @@
       <c r="AQ7" s="9"/>
     </row>
     <row r="8" spans="2:43" ht="48.75" customHeight="1">
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="105" t="s">
+      <c r="D8" s="105"/>
+      <c r="E8" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="94" t="s">
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94" t="s">
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94" t="s">
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
-      <c r="T8" s="94"/>
-      <c r="U8" s="94"/>
-      <c r="V8" s="94"/>
-      <c r="W8" s="95" t="s">
+      <c r="R8" s="96"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="96"/>
+      <c r="V8" s="96"/>
+      <c r="W8" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="X8" s="95"/>
-      <c r="Y8" s="95"/>
-      <c r="Z8" s="95"/>
-      <c r="AA8" s="95" t="s">
+      <c r="X8" s="97"/>
+      <c r="Y8" s="97"/>
+      <c r="Z8" s="97"/>
+      <c r="AA8" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="AB8" s="95"/>
-      <c r="AC8" s="95"/>
-      <c r="AD8" s="95"/>
-      <c r="AE8" s="95"/>
-      <c r="AF8" s="95"/>
+      <c r="AB8" s="97"/>
+      <c r="AC8" s="97"/>
+      <c r="AD8" s="97"/>
+      <c r="AE8" s="97"/>
+      <c r="AF8" s="97"/>
       <c r="AG8" s="9"/>
       <c r="AH8" s="9"/>
       <c r="AI8" s="9"/>
@@ -7186,41 +7208,41 @@
       <c r="AQ8" s="9"/>
     </row>
     <row r="9" spans="2:43" ht="42" customHeight="1">
-      <c r="B9" s="100"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="96" t="s">
+      <c r="B9" s="102"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="97" t="s">
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="V9" s="97"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="95"/>
-      <c r="Y9" s="95"/>
-      <c r="Z9" s="95"/>
-      <c r="AA9" s="95"/>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="95"/>
-      <c r="AD9" s="95"/>
-      <c r="AE9" s="95"/>
-      <c r="AF9" s="95"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="97"/>
+      <c r="X9" s="97"/>
+      <c r="Y9" s="97"/>
+      <c r="Z9" s="97"/>
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="97"/>
+      <c r="AD9" s="97"/>
+      <c r="AE9" s="97"/>
+      <c r="AF9" s="97"/>
       <c r="AG9" s="9"/>
       <c r="AH9" s="9"/>
       <c r="AI9" s="9"/>
@@ -7234,65 +7256,65 @@
       <c r="AQ9" s="9"/>
     </row>
     <row r="10" spans="2:43" ht="49.5" customHeight="1">
-      <c r="B10" s="100"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="105" t="s">
+      <c r="B10" s="102"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="107" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105" t="s">
+      <c r="F10" s="107"/>
+      <c r="G10" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105" t="s">
+      <c r="H10" s="107"/>
+      <c r="I10" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="J10" s="105"/>
-      <c r="K10" s="97" t="s">
+      <c r="J10" s="107"/>
+      <c r="K10" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97" t="s">
+      <c r="L10" s="99"/>
+      <c r="M10" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="N10" s="97"/>
-      <c r="O10" s="110" t="s">
+      <c r="N10" s="99"/>
+      <c r="O10" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="94" t="s">
+      <c r="P10" s="112"/>
+      <c r="Q10" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="R10" s="94"/>
-      <c r="S10" s="97" t="s">
+      <c r="R10" s="96"/>
+      <c r="S10" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="T10" s="97"/>
-      <c r="U10" s="97" t="s">
+      <c r="T10" s="99"/>
+      <c r="U10" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="V10" s="97"/>
-      <c r="W10" s="98" t="s">
+      <c r="V10" s="99"/>
+      <c r="W10" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="96" t="s">
+      <c r="X10" s="100"/>
+      <c r="Y10" s="98" t="s">
         <v>156</v>
       </c>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="98" t="s">
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="AB10" s="98"/>
-      <c r="AC10" s="98" t="s">
+      <c r="AB10" s="100"/>
+      <c r="AC10" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="AD10" s="98"/>
-      <c r="AE10" s="98" t="s">
+      <c r="AD10" s="100"/>
+      <c r="AE10" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="AF10" s="98"/>
+      <c r="AF10" s="100"/>
       <c r="AG10" s="9"/>
       <c r="AH10" s="9"/>
       <c r="AI10" s="9"/>
@@ -7306,53 +7328,53 @@
       <c r="AQ10" s="9"/>
     </row>
     <row r="11" spans="2:43" ht="29.25" customHeight="1">
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="112"/>
-      <c r="D11" s="113" t="s">
+      <c r="C11" s="113"/>
+      <c r="D11" s="114" t="s">
         <v>158</v>
       </c>
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="74" t="s">
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="74" t="s">
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="94" t="s">
+      <c r="P11" s="76"/>
+      <c r="Q11" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="94"/>
-      <c r="W11" s="95" t="s">
+      <c r="R11" s="96"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="96"/>
+      <c r="W11" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="95" t="s">
+      <c r="X11" s="97"/>
+      <c r="Y11" s="97"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="AB11" s="95"/>
-      <c r="AC11" s="95"/>
-      <c r="AD11" s="95"/>
-      <c r="AE11" s="95"/>
-      <c r="AF11" s="95"/>
+      <c r="AB11" s="97"/>
+      <c r="AC11" s="97"/>
+      <c r="AD11" s="97"/>
+      <c r="AE11" s="97"/>
+      <c r="AF11" s="97"/>
       <c r="AG11" s="9"/>
       <c r="AH11" s="9"/>
       <c r="AI11" s="9"/>
@@ -7366,41 +7388,41 @@
       <c r="AQ11" s="9"/>
     </row>
     <row r="12" spans="2:43" ht="29.25" customHeight="1">
-      <c r="B12" s="111"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="96" t="s">
+      <c r="B12" s="127"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="R12" s="96"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="97" t="s">
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="V12" s="97"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="95"/>
+      <c r="V12" s="99"/>
+      <c r="W12" s="97"/>
+      <c r="X12" s="97"/>
+      <c r="Y12" s="97"/>
+      <c r="Z12" s="97"/>
+      <c r="AA12" s="97"/>
+      <c r="AB12" s="97"/>
+      <c r="AC12" s="97"/>
+      <c r="AD12" s="97"/>
+      <c r="AE12" s="97"/>
+      <c r="AF12" s="97"/>
       <c r="AG12" s="9"/>
       <c r="AH12" s="9"/>
       <c r="AI12" s="9"/>
@@ -7414,65 +7436,65 @@
       <c r="AQ12" s="9"/>
     </row>
     <row r="13" spans="2:43" ht="42" customHeight="1">
-      <c r="B13" s="111"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="84" t="s">
+      <c r="B13" s="127"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="84" t="s">
+      <c r="F13" s="87"/>
+      <c r="G13" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="H13" s="86"/>
-      <c r="I13" s="84" t="s">
+      <c r="H13" s="87"/>
+      <c r="I13" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="J13" s="86"/>
-      <c r="K13" s="116" t="s">
+      <c r="J13" s="87"/>
+      <c r="K13" s="117" t="s">
         <v>169</v>
       </c>
-      <c r="L13" s="117"/>
-      <c r="M13" s="116" t="s">
+      <c r="L13" s="118"/>
+      <c r="M13" s="117" t="s">
         <v>170</v>
       </c>
-      <c r="N13" s="117"/>
-      <c r="O13" s="118" t="s">
+      <c r="N13" s="118"/>
+      <c r="O13" s="119" t="s">
         <v>131</v>
       </c>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="74" t="s">
+      <c r="P13" s="120"/>
+      <c r="Q13" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="R13" s="120"/>
-      <c r="S13" s="116" t="s">
+      <c r="R13" s="121"/>
+      <c r="S13" s="117" t="s">
         <v>172</v>
       </c>
-      <c r="T13" s="117"/>
-      <c r="U13" s="116" t="s">
+      <c r="T13" s="118"/>
+      <c r="U13" s="117" t="s">
         <v>173</v>
       </c>
-      <c r="V13" s="117"/>
-      <c r="W13" s="84" t="s">
+      <c r="V13" s="118"/>
+      <c r="W13" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="84" t="s">
+      <c r="X13" s="87"/>
+      <c r="Y13" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="122" t="s">
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="123" t="s">
         <v>131</v>
       </c>
-      <c r="AB13" s="122"/>
-      <c r="AC13" s="84" t="s">
+      <c r="AB13" s="123"/>
+      <c r="AC13" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="AD13" s="86"/>
-      <c r="AE13" s="84" t="s">
+      <c r="AD13" s="87"/>
+      <c r="AE13" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="AF13" s="86"/>
+      <c r="AF13" s="87"/>
       <c r="AG13" s="9"/>
       <c r="AH13" s="9"/>
       <c r="AI13" s="9"/>
@@ -7487,7 +7509,7 @@
     </row>
     <row r="14" spans="2:43">
       <c r="B14" s="12"/>
-      <c r="C14" s="130" t="s">
+      <c r="C14" s="72" t="s">
         <v>174</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -25156,27 +25178,27 @@
       <c r="AQ223" s="9"/>
     </row>
     <row r="224" spans="2:43">
-      <c r="B224" s="123" t="s">
+      <c r="B224" s="124" t="s">
         <v>641</v>
       </c>
-      <c r="C224" s="123"/>
-      <c r="D224" s="123"/>
-      <c r="E224" s="123"/>
-      <c r="F224" s="123"/>
-      <c r="G224" s="123"/>
-      <c r="H224" s="123"/>
-      <c r="I224" s="123"/>
-      <c r="J224" s="123"/>
-      <c r="K224" s="123"/>
-      <c r="L224" s="123"/>
-      <c r="M224" s="123"/>
-      <c r="N224" s="123"/>
-      <c r="O224" s="123"/>
-      <c r="P224" s="123"/>
-      <c r="Q224" s="123"/>
-      <c r="R224" s="123"/>
-      <c r="S224" s="123"/>
-      <c r="T224" s="123"/>
+      <c r="C224" s="124"/>
+      <c r="D224" s="124"/>
+      <c r="E224" s="124"/>
+      <c r="F224" s="124"/>
+      <c r="G224" s="124"/>
+      <c r="H224" s="124"/>
+      <c r="I224" s="124"/>
+      <c r="J224" s="124"/>
+      <c r="K224" s="124"/>
+      <c r="L224" s="124"/>
+      <c r="M224" s="124"/>
+      <c r="N224" s="124"/>
+      <c r="O224" s="124"/>
+      <c r="P224" s="124"/>
+      <c r="Q224" s="124"/>
+      <c r="R224" s="124"/>
+      <c r="S224" s="124"/>
+      <c r="T224" s="124"/>
       <c r="U224" s="9"/>
       <c r="V224" s="9"/>
       <c r="W224" s="10"/>
@@ -25484,38 +25506,38 @@
       <c r="AQ231" s="9"/>
     </row>
     <row r="232" spans="1:43" ht="12.95">
-      <c r="B232" s="123" t="s">
+      <c r="B232" s="124" t="s">
         <v>647</v>
       </c>
-      <c r="C232" s="124"/>
-      <c r="D232" s="124"/>
-      <c r="E232" s="124"/>
-      <c r="F232" s="124"/>
-      <c r="G232" s="124"/>
-      <c r="H232" s="124"/>
-      <c r="I232" s="124"/>
-      <c r="J232" s="124"/>
-      <c r="K232" s="124"/>
-      <c r="L232" s="124"/>
-      <c r="M232" s="124"/>
-      <c r="N232" s="124"/>
-      <c r="O232" s="124"/>
-      <c r="P232" s="124"/>
-      <c r="Q232" s="124"/>
-      <c r="R232" s="124"/>
-      <c r="S232" s="124"/>
-      <c r="T232" s="124"/>
-      <c r="U232" s="124"/>
-      <c r="V232" s="124"/>
-      <c r="W232" s="124"/>
-      <c r="X232" s="124"/>
-      <c r="Y232" s="124"/>
-      <c r="Z232" s="124"/>
-      <c r="AA232" s="124"/>
-      <c r="AB232" s="124"/>
-      <c r="AC232" s="124"/>
-      <c r="AD232" s="124"/>
-      <c r="AE232" s="124"/>
+      <c r="C232" s="125"/>
+      <c r="D232" s="125"/>
+      <c r="E232" s="125"/>
+      <c r="F232" s="125"/>
+      <c r="G232" s="125"/>
+      <c r="H232" s="125"/>
+      <c r="I232" s="125"/>
+      <c r="J232" s="125"/>
+      <c r="K232" s="125"/>
+      <c r="L232" s="125"/>
+      <c r="M232" s="125"/>
+      <c r="N232" s="125"/>
+      <c r="O232" s="125"/>
+      <c r="P232" s="125"/>
+      <c r="Q232" s="125"/>
+      <c r="R232" s="125"/>
+      <c r="S232" s="125"/>
+      <c r="T232" s="125"/>
+      <c r="U232" s="125"/>
+      <c r="V232" s="125"/>
+      <c r="W232" s="125"/>
+      <c r="X232" s="125"/>
+      <c r="Y232" s="125"/>
+      <c r="Z232" s="125"/>
+      <c r="AA232" s="125"/>
+      <c r="AB232" s="125"/>
+      <c r="AC232" s="125"/>
+      <c r="AD232" s="125"/>
+      <c r="AE232" s="125"/>
       <c r="AF232" s="56"/>
       <c r="AG232" s="42"/>
       <c r="AH232" s="9"/>
@@ -25530,37 +25552,37 @@
       <c r="AQ232" s="9"/>
     </row>
     <row r="233" spans="1:43" ht="12.95">
-      <c r="B233" s="123" t="s">
+      <c r="B233" s="124" t="s">
         <v>648</v>
       </c>
-      <c r="C233" s="124"/>
-      <c r="D233" s="124"/>
-      <c r="E233" s="124"/>
-      <c r="F233" s="124"/>
-      <c r="G233" s="124"/>
-      <c r="H233" s="124"/>
-      <c r="I233" s="124"/>
-      <c r="J233" s="124"/>
-      <c r="K233" s="124"/>
-      <c r="L233" s="124"/>
-      <c r="M233" s="124"/>
-      <c r="N233" s="124"/>
-      <c r="O233" s="124"/>
-      <c r="P233" s="124"/>
-      <c r="Q233" s="124"/>
-      <c r="R233" s="124"/>
-      <c r="S233" s="124"/>
-      <c r="T233" s="124"/>
-      <c r="U233" s="124"/>
-      <c r="V233" s="124"/>
-      <c r="W233" s="124"/>
-      <c r="X233" s="124"/>
-      <c r="Y233" s="124"/>
-      <c r="Z233" s="124"/>
-      <c r="AA233" s="124"/>
-      <c r="AB233" s="124"/>
-      <c r="AC233" s="124"/>
-      <c r="AD233" s="124"/>
+      <c r="C233" s="125"/>
+      <c r="D233" s="125"/>
+      <c r="E233" s="125"/>
+      <c r="F233" s="125"/>
+      <c r="G233" s="125"/>
+      <c r="H233" s="125"/>
+      <c r="I233" s="125"/>
+      <c r="J233" s="125"/>
+      <c r="K233" s="125"/>
+      <c r="L233" s="125"/>
+      <c r="M233" s="125"/>
+      <c r="N233" s="125"/>
+      <c r="O233" s="125"/>
+      <c r="P233" s="125"/>
+      <c r="Q233" s="125"/>
+      <c r="R233" s="125"/>
+      <c r="S233" s="125"/>
+      <c r="T233" s="125"/>
+      <c r="U233" s="125"/>
+      <c r="V233" s="125"/>
+      <c r="W233" s="125"/>
+      <c r="X233" s="125"/>
+      <c r="Y233" s="125"/>
+      <c r="Z233" s="125"/>
+      <c r="AA233" s="125"/>
+      <c r="AB233" s="125"/>
+      <c r="AC233" s="125"/>
+      <c r="AD233" s="125"/>
       <c r="AE233" s="36"/>
       <c r="AF233" s="57"/>
       <c r="AG233" s="42"/>
@@ -25576,38 +25598,38 @@
       <c r="AQ233" s="9"/>
     </row>
     <row r="234" spans="1:43" ht="15" customHeight="1">
-      <c r="B234" s="125" t="s">
+      <c r="B234" s="126" t="s">
         <v>649</v>
       </c>
-      <c r="C234" s="123"/>
-      <c r="D234" s="123"/>
-      <c r="E234" s="123"/>
-      <c r="F234" s="123"/>
-      <c r="G234" s="123"/>
-      <c r="H234" s="123"/>
-      <c r="I234" s="123"/>
-      <c r="J234" s="123"/>
-      <c r="K234" s="123"/>
-      <c r="L234" s="123"/>
-      <c r="M234" s="123"/>
-      <c r="N234" s="123"/>
-      <c r="O234" s="123"/>
-      <c r="P234" s="123"/>
-      <c r="Q234" s="123"/>
-      <c r="R234" s="123"/>
-      <c r="S234" s="123"/>
-      <c r="T234" s="123"/>
-      <c r="U234" s="123"/>
-      <c r="V234" s="123"/>
-      <c r="W234" s="123"/>
-      <c r="X234" s="123"/>
-      <c r="Y234" s="123"/>
-      <c r="Z234" s="123"/>
-      <c r="AA234" s="123"/>
-      <c r="AB234" s="123"/>
-      <c r="AC234" s="123"/>
-      <c r="AD234" s="123"/>
-      <c r="AE234" s="123"/>
+      <c r="C234" s="124"/>
+      <c r="D234" s="124"/>
+      <c r="E234" s="124"/>
+      <c r="F234" s="124"/>
+      <c r="G234" s="124"/>
+      <c r="H234" s="124"/>
+      <c r="I234" s="124"/>
+      <c r="J234" s="124"/>
+      <c r="K234" s="124"/>
+      <c r="L234" s="124"/>
+      <c r="M234" s="124"/>
+      <c r="N234" s="124"/>
+      <c r="O234" s="124"/>
+      <c r="P234" s="124"/>
+      <c r="Q234" s="124"/>
+      <c r="R234" s="124"/>
+      <c r="S234" s="124"/>
+      <c r="T234" s="124"/>
+      <c r="U234" s="124"/>
+      <c r="V234" s="124"/>
+      <c r="W234" s="124"/>
+      <c r="X234" s="124"/>
+      <c r="Y234" s="124"/>
+      <c r="Z234" s="124"/>
+      <c r="AA234" s="124"/>
+      <c r="AB234" s="124"/>
+      <c r="AC234" s="124"/>
+      <c r="AD234" s="124"/>
+      <c r="AE234" s="124"/>
       <c r="AF234" s="58"/>
       <c r="AG234" s="42"/>
       <c r="AH234" s="9"/>
@@ -25897,37 +25919,37 @@
     </row>
     <row r="241" spans="2:43" ht="14.25" customHeight="1">
       <c r="B241" s="38"/>
-      <c r="C241" s="121" t="s">
+      <c r="C241" s="122" t="s">
         <v>654</v>
       </c>
-      <c r="D241" s="131"/>
-      <c r="E241" s="131"/>
-      <c r="F241" s="131"/>
-      <c r="G241" s="131"/>
-      <c r="H241" s="131"/>
-      <c r="I241" s="131"/>
-      <c r="J241" s="131"/>
-      <c r="K241" s="131"/>
-      <c r="L241" s="131"/>
-      <c r="M241" s="131"/>
-      <c r="N241" s="131"/>
-      <c r="O241" s="131"/>
-      <c r="P241" s="131"/>
-      <c r="Q241" s="131"/>
-      <c r="R241" s="131"/>
-      <c r="S241" s="131"/>
-      <c r="T241" s="131"/>
-      <c r="U241" s="131"/>
-      <c r="V241" s="131"/>
-      <c r="W241" s="131"/>
-      <c r="X241" s="131"/>
-      <c r="Y241" s="131"/>
-      <c r="Z241" s="131"/>
-      <c r="AA241" s="131"/>
-      <c r="AB241" s="131"/>
-      <c r="AC241" s="131"/>
-      <c r="AD241" s="131"/>
-      <c r="AE241" s="131"/>
+      <c r="D241" s="132"/>
+      <c r="E241" s="132"/>
+      <c r="F241" s="132"/>
+      <c r="G241" s="132"/>
+      <c r="H241" s="132"/>
+      <c r="I241" s="132"/>
+      <c r="J241" s="132"/>
+      <c r="K241" s="132"/>
+      <c r="L241" s="132"/>
+      <c r="M241" s="132"/>
+      <c r="N241" s="132"/>
+      <c r="O241" s="132"/>
+      <c r="P241" s="132"/>
+      <c r="Q241" s="132"/>
+      <c r="R241" s="132"/>
+      <c r="S241" s="132"/>
+      <c r="T241" s="132"/>
+      <c r="U241" s="132"/>
+      <c r="V241" s="132"/>
+      <c r="W241" s="132"/>
+      <c r="X241" s="132"/>
+      <c r="Y241" s="132"/>
+      <c r="Z241" s="132"/>
+      <c r="AA241" s="132"/>
+      <c r="AB241" s="132"/>
+      <c r="AC241" s="132"/>
+      <c r="AD241" s="132"/>
+      <c r="AE241" s="132"/>
       <c r="AF241" s="42"/>
       <c r="AG241" s="42"/>
       <c r="AH241" s="9"/>
@@ -25943,45 +25965,45 @@
     </row>
     <row r="242" spans="2:43" ht="18" customHeight="1">
       <c r="B242" s="38"/>
-      <c r="C242" s="121" t="s">
+      <c r="C242" s="122" t="s">
         <v>655</v>
       </c>
-      <c r="D242" s="72"/>
-      <c r="E242" s="72"/>
-      <c r="F242" s="72"/>
-      <c r="G242" s="72"/>
-      <c r="H242" s="72"/>
-      <c r="I242" s="72"/>
-      <c r="J242" s="72"/>
-      <c r="K242" s="72"/>
-      <c r="L242" s="72"/>
-      <c r="M242" s="72"/>
-      <c r="N242" s="72"/>
-      <c r="O242" s="72"/>
-      <c r="P242" s="72"/>
-      <c r="Q242" s="72"/>
-      <c r="R242" s="72"/>
-      <c r="S242" s="72"/>
-      <c r="T242" s="72"/>
-      <c r="U242" s="72"/>
-      <c r="V242" s="72"/>
-      <c r="W242" s="72"/>
-      <c r="X242" s="72"/>
-      <c r="Y242" s="72"/>
-      <c r="Z242" s="72"/>
-      <c r="AA242" s="72"/>
-      <c r="AB242" s="72"/>
-      <c r="AC242" s="72"/>
-      <c r="AD242" s="72"/>
-      <c r="AE242" s="72"/>
-      <c r="AF242" s="72"/>
-      <c r="AG242" s="72"/>
-      <c r="AH242" s="72"/>
-      <c r="AI242" s="72"/>
-      <c r="AJ242" s="72"/>
-      <c r="AK242" s="72"/>
-      <c r="AL242" s="72"/>
-      <c r="AM242" s="72"/>
+      <c r="D242" s="73"/>
+      <c r="E242" s="73"/>
+      <c r="F242" s="73"/>
+      <c r="G242" s="73"/>
+      <c r="H242" s="73"/>
+      <c r="I242" s="73"/>
+      <c r="J242" s="73"/>
+      <c r="K242" s="73"/>
+      <c r="L242" s="73"/>
+      <c r="M242" s="73"/>
+      <c r="N242" s="73"/>
+      <c r="O242" s="73"/>
+      <c r="P242" s="73"/>
+      <c r="Q242" s="73"/>
+      <c r="R242" s="73"/>
+      <c r="S242" s="73"/>
+      <c r="T242" s="73"/>
+      <c r="U242" s="73"/>
+      <c r="V242" s="73"/>
+      <c r="W242" s="73"/>
+      <c r="X242" s="73"/>
+      <c r="Y242" s="73"/>
+      <c r="Z242" s="73"/>
+      <c r="AA242" s="73"/>
+      <c r="AB242" s="73"/>
+      <c r="AC242" s="73"/>
+      <c r="AD242" s="73"/>
+      <c r="AE242" s="73"/>
+      <c r="AF242" s="73"/>
+      <c r="AG242" s="73"/>
+      <c r="AH242" s="73"/>
+      <c r="AI242" s="73"/>
+      <c r="AJ242" s="73"/>
+      <c r="AK242" s="73"/>
+      <c r="AL242" s="73"/>
+      <c r="AM242" s="73"/>
       <c r="AN242" s="9"/>
       <c r="AO242" s="9"/>
       <c r="AP242" s="9"/>
@@ -26545,47 +26567,47 @@
       <c r="AD256" s="8"/>
     </row>
     <row r="257" spans="2:49" ht="17.25" customHeight="1">
-      <c r="B257" s="127" t="s">
+      <c r="B257" s="129" t="s">
         <v>668</v>
       </c>
-      <c r="C257" s="128"/>
-      <c r="D257" s="128"/>
-      <c r="E257" s="128"/>
-      <c r="F257" s="128"/>
-      <c r="G257" s="128"/>
-      <c r="H257" s="128"/>
-      <c r="I257" s="128"/>
-      <c r="J257" s="128"/>
-      <c r="K257" s="128"/>
-      <c r="L257" s="128"/>
-      <c r="M257" s="128"/>
-      <c r="N257" s="128"/>
-      <c r="O257" s="128"/>
-      <c r="P257" s="128"/>
-      <c r="Q257" s="128"/>
-      <c r="R257" s="128"/>
-      <c r="S257" s="128"/>
-      <c r="T257" s="128"/>
-      <c r="U257" s="128"/>
-      <c r="V257" s="128"/>
-      <c r="W257" s="128"/>
-      <c r="X257" s="128"/>
-      <c r="Y257" s="128"/>
-      <c r="Z257" s="128"/>
-      <c r="AA257" s="128"/>
-      <c r="AB257" s="128"/>
-      <c r="AC257" s="128"/>
-      <c r="AD257" s="128"/>
-      <c r="AE257" s="128"/>
-      <c r="AF257" s="128"/>
-      <c r="AG257" s="128"/>
-      <c r="AH257" s="128"/>
-      <c r="AI257" s="128"/>
-      <c r="AJ257" s="128"/>
-      <c r="AK257" s="128"/>
-      <c r="AL257" s="128"/>
-      <c r="AM257" s="128"/>
-      <c r="AN257" s="129"/>
+      <c r="C257" s="130"/>
+      <c r="D257" s="130"/>
+      <c r="E257" s="130"/>
+      <c r="F257" s="130"/>
+      <c r="G257" s="130"/>
+      <c r="H257" s="130"/>
+      <c r="I257" s="130"/>
+      <c r="J257" s="130"/>
+      <c r="K257" s="130"/>
+      <c r="L257" s="130"/>
+      <c r="M257" s="130"/>
+      <c r="N257" s="130"/>
+      <c r="O257" s="130"/>
+      <c r="P257" s="130"/>
+      <c r="Q257" s="130"/>
+      <c r="R257" s="130"/>
+      <c r="S257" s="130"/>
+      <c r="T257" s="130"/>
+      <c r="U257" s="130"/>
+      <c r="V257" s="130"/>
+      <c r="W257" s="130"/>
+      <c r="X257" s="130"/>
+      <c r="Y257" s="130"/>
+      <c r="Z257" s="130"/>
+      <c r="AA257" s="130"/>
+      <c r="AB257" s="130"/>
+      <c r="AC257" s="130"/>
+      <c r="AD257" s="130"/>
+      <c r="AE257" s="130"/>
+      <c r="AF257" s="130"/>
+      <c r="AG257" s="130"/>
+      <c r="AH257" s="130"/>
+      <c r="AI257" s="130"/>
+      <c r="AJ257" s="130"/>
+      <c r="AK257" s="130"/>
+      <c r="AL257" s="130"/>
+      <c r="AM257" s="130"/>
+      <c r="AN257" s="131"/>
       <c r="AO257" s="66"/>
       <c r="AP257" s="66"/>
       <c r="AQ257" s="66"/>
@@ -26912,50 +26934,50 @@
       <c r="AG273"/>
     </row>
     <row r="274" spans="3:44" ht="27" customHeight="1">
-      <c r="C274" s="128" t="s">
+      <c r="C274" s="130" t="s">
         <v>682</v>
       </c>
-      <c r="D274" s="129"/>
-      <c r="E274" s="129"/>
-      <c r="F274" s="129"/>
-      <c r="G274" s="129"/>
-      <c r="H274" s="129"/>
-      <c r="I274" s="129"/>
-      <c r="J274" s="129"/>
-      <c r="K274" s="129"/>
-      <c r="L274" s="129"/>
-      <c r="M274" s="129"/>
-      <c r="N274" s="129"/>
-      <c r="O274" s="129"/>
-      <c r="P274" s="129"/>
-      <c r="Q274" s="129"/>
-      <c r="R274" s="129"/>
-      <c r="S274" s="129"/>
-      <c r="T274" s="129"/>
-      <c r="U274" s="129"/>
-      <c r="V274" s="129"/>
-      <c r="W274" s="129"/>
-      <c r="X274" s="129"/>
-      <c r="Y274" s="129"/>
-      <c r="Z274" s="129"/>
-      <c r="AA274" s="129"/>
-      <c r="AB274" s="129"/>
-      <c r="AC274" s="129"/>
-      <c r="AD274" s="129"/>
-      <c r="AE274" s="129"/>
-      <c r="AF274" s="129"/>
-      <c r="AG274" s="129"/>
-      <c r="AH274" s="129"/>
-      <c r="AI274" s="129"/>
-      <c r="AJ274" s="129"/>
-      <c r="AK274" s="129"/>
-      <c r="AL274" s="129"/>
-      <c r="AM274" s="129"/>
-      <c r="AN274" s="129"/>
-      <c r="AO274" s="129"/>
-      <c r="AP274" s="129"/>
-      <c r="AQ274" s="129"/>
-      <c r="AR274" s="129"/>
+      <c r="D274" s="131"/>
+      <c r="E274" s="131"/>
+      <c r="F274" s="131"/>
+      <c r="G274" s="131"/>
+      <c r="H274" s="131"/>
+      <c r="I274" s="131"/>
+      <c r="J274" s="131"/>
+      <c r="K274" s="131"/>
+      <c r="L274" s="131"/>
+      <c r="M274" s="131"/>
+      <c r="N274" s="131"/>
+      <c r="O274" s="131"/>
+      <c r="P274" s="131"/>
+      <c r="Q274" s="131"/>
+      <c r="R274" s="131"/>
+      <c r="S274" s="131"/>
+      <c r="T274" s="131"/>
+      <c r="U274" s="131"/>
+      <c r="V274" s="131"/>
+      <c r="W274" s="131"/>
+      <c r="X274" s="131"/>
+      <c r="Y274" s="131"/>
+      <c r="Z274" s="131"/>
+      <c r="AA274" s="131"/>
+      <c r="AB274" s="131"/>
+      <c r="AC274" s="131"/>
+      <c r="AD274" s="131"/>
+      <c r="AE274" s="131"/>
+      <c r="AF274" s="131"/>
+      <c r="AG274" s="131"/>
+      <c r="AH274" s="131"/>
+      <c r="AI274" s="131"/>
+      <c r="AJ274" s="131"/>
+      <c r="AK274" s="131"/>
+      <c r="AL274" s="131"/>
+      <c r="AM274" s="131"/>
+      <c r="AN274" s="131"/>
+      <c r="AO274" s="131"/>
+      <c r="AP274" s="131"/>
+      <c r="AQ274" s="131"/>
+      <c r="AR274" s="131"/>
     </row>
     <row r="275" spans="3:44" ht="12.95">
       <c r="C275" s="8" t="s">
@@ -26992,81 +27014,81 @@
       <c r="AG275"/>
     </row>
     <row r="276" spans="3:44" ht="13.5" customHeight="1">
-      <c r="C276" s="126" t="s">
+      <c r="C276" s="128" t="s">
         <v>684</v>
       </c>
-      <c r="D276" s="126"/>
-      <c r="E276" s="126"/>
-      <c r="F276" s="126"/>
-      <c r="G276" s="126"/>
-      <c r="H276" s="126"/>
-      <c r="I276" s="126"/>
-      <c r="J276" s="126"/>
-      <c r="K276" s="126"/>
-      <c r="L276" s="126"/>
-      <c r="M276" s="126"/>
-      <c r="N276" s="126"/>
-      <c r="O276" s="126"/>
-      <c r="P276" s="126"/>
-      <c r="Q276" s="126"/>
-      <c r="R276" s="126"/>
-      <c r="S276" s="126"/>
-      <c r="T276" s="126"/>
-      <c r="U276" s="126"/>
-      <c r="V276" s="126"/>
-      <c r="W276" s="126"/>
-      <c r="X276" s="126"/>
-      <c r="Y276" s="126"/>
-      <c r="Z276" s="126"/>
-      <c r="AA276" s="126"/>
-      <c r="AB276" s="126"/>
-      <c r="AC276" s="126"/>
-      <c r="AD276" s="126"/>
-      <c r="AE276" s="126"/>
-      <c r="AF276" s="126"/>
-      <c r="AG276" s="126"/>
-      <c r="AH276" s="126"/>
+      <c r="D276" s="128"/>
+      <c r="E276" s="128"/>
+      <c r="F276" s="128"/>
+      <c r="G276" s="128"/>
+      <c r="H276" s="128"/>
+      <c r="I276" s="128"/>
+      <c r="J276" s="128"/>
+      <c r="K276" s="128"/>
+      <c r="L276" s="128"/>
+      <c r="M276" s="128"/>
+      <c r="N276" s="128"/>
+      <c r="O276" s="128"/>
+      <c r="P276" s="128"/>
+      <c r="Q276" s="128"/>
+      <c r="R276" s="128"/>
+      <c r="S276" s="128"/>
+      <c r="T276" s="128"/>
+      <c r="U276" s="128"/>
+      <c r="V276" s="128"/>
+      <c r="W276" s="128"/>
+      <c r="X276" s="128"/>
+      <c r="Y276" s="128"/>
+      <c r="Z276" s="128"/>
+      <c r="AA276" s="128"/>
+      <c r="AB276" s="128"/>
+      <c r="AC276" s="128"/>
+      <c r="AD276" s="128"/>
+      <c r="AE276" s="128"/>
+      <c r="AF276" s="128"/>
+      <c r="AG276" s="128"/>
+      <c r="AH276" s="128"/>
     </row>
     <row r="277" spans="3:44" ht="17.25" customHeight="1">
-      <c r="C277" s="126" t="s">
+      <c r="C277" s="128" t="s">
         <v>685</v>
       </c>
-      <c r="D277" s="126"/>
-      <c r="E277" s="126"/>
-      <c r="F277" s="126"/>
-      <c r="G277" s="126"/>
-      <c r="H277" s="126"/>
-      <c r="I277" s="126"/>
-      <c r="J277" s="126"/>
-      <c r="K277" s="126"/>
-      <c r="L277" s="126"/>
-      <c r="M277" s="126"/>
-      <c r="N277" s="126"/>
-      <c r="O277" s="126"/>
-      <c r="P277" s="126"/>
-      <c r="Q277" s="126"/>
-      <c r="R277" s="126"/>
-      <c r="S277" s="126"/>
-      <c r="T277" s="126"/>
-      <c r="U277" s="126"/>
-      <c r="V277" s="126"/>
-      <c r="W277" s="126"/>
-      <c r="X277" s="126"/>
-      <c r="Y277" s="126"/>
-      <c r="Z277" s="126"/>
-      <c r="AA277" s="126"/>
-      <c r="AB277" s="126"/>
-      <c r="AC277" s="126"/>
-      <c r="AD277" s="126"/>
-      <c r="AE277" s="126"/>
-      <c r="AF277" s="126"/>
-      <c r="AG277" s="126"/>
-      <c r="AH277" s="126"/>
-      <c r="AI277" s="126"/>
-      <c r="AJ277" s="126"/>
-      <c r="AK277" s="126"/>
-      <c r="AL277" s="126"/>
-      <c r="AM277" s="126"/>
+      <c r="D277" s="128"/>
+      <c r="E277" s="128"/>
+      <c r="F277" s="128"/>
+      <c r="G277" s="128"/>
+      <c r="H277" s="128"/>
+      <c r="I277" s="128"/>
+      <c r="J277" s="128"/>
+      <c r="K277" s="128"/>
+      <c r="L277" s="128"/>
+      <c r="M277" s="128"/>
+      <c r="N277" s="128"/>
+      <c r="O277" s="128"/>
+      <c r="P277" s="128"/>
+      <c r="Q277" s="128"/>
+      <c r="R277" s="128"/>
+      <c r="S277" s="128"/>
+      <c r="T277" s="128"/>
+      <c r="U277" s="128"/>
+      <c r="V277" s="128"/>
+      <c r="W277" s="128"/>
+      <c r="X277" s="128"/>
+      <c r="Y277" s="128"/>
+      <c r="Z277" s="128"/>
+      <c r="AA277" s="128"/>
+      <c r="AB277" s="128"/>
+      <c r="AC277" s="128"/>
+      <c r="AD277" s="128"/>
+      <c r="AE277" s="128"/>
+      <c r="AF277" s="128"/>
+      <c r="AG277" s="128"/>
+      <c r="AH277" s="128"/>
+      <c r="AI277" s="128"/>
+      <c r="AJ277" s="128"/>
+      <c r="AK277" s="128"/>
+      <c r="AL277" s="128"/>
+      <c r="AM277" s="128"/>
     </row>
     <row r="278" spans="3:44">
       <c r="C278" s="8" t="s">
@@ -27119,44 +27141,44 @@
       </c>
     </row>
     <row r="290" spans="4:39" ht="28.5" customHeight="1">
-      <c r="D290" s="121" t="s">
+      <c r="D290" s="122" t="s">
         <v>696</v>
       </c>
-      <c r="E290" s="72"/>
-      <c r="F290" s="72"/>
-      <c r="G290" s="72"/>
-      <c r="H290" s="72"/>
-      <c r="I290" s="72"/>
-      <c r="J290" s="72"/>
-      <c r="K290" s="72"/>
-      <c r="L290" s="72"/>
-      <c r="M290" s="72"/>
-      <c r="N290" s="72"/>
-      <c r="O290" s="72"/>
-      <c r="P290" s="72"/>
-      <c r="Q290" s="72"/>
-      <c r="R290" s="72"/>
-      <c r="S290" s="72"/>
-      <c r="T290" s="72"/>
-      <c r="U290" s="72"/>
-      <c r="V290" s="72"/>
-      <c r="W290" s="72"/>
-      <c r="X290" s="72"/>
-      <c r="Y290" s="72"/>
-      <c r="Z290" s="72"/>
-      <c r="AA290" s="72"/>
-      <c r="AB290" s="72"/>
-      <c r="AC290" s="72"/>
-      <c r="AD290" s="72"/>
-      <c r="AE290" s="72"/>
-      <c r="AF290" s="72"/>
-      <c r="AG290" s="72"/>
-      <c r="AH290" s="72"/>
-      <c r="AI290" s="72"/>
-      <c r="AJ290" s="72"/>
-      <c r="AK290" s="72"/>
-      <c r="AL290" s="72"/>
-      <c r="AM290" s="72"/>
+      <c r="E290" s="73"/>
+      <c r="F290" s="73"/>
+      <c r="G290" s="73"/>
+      <c r="H290" s="73"/>
+      <c r="I290" s="73"/>
+      <c r="J290" s="73"/>
+      <c r="K290" s="73"/>
+      <c r="L290" s="73"/>
+      <c r="M290" s="73"/>
+      <c r="N290" s="73"/>
+      <c r="O290" s="73"/>
+      <c r="P290" s="73"/>
+      <c r="Q290" s="73"/>
+      <c r="R290" s="73"/>
+      <c r="S290" s="73"/>
+      <c r="T290" s="73"/>
+      <c r="U290" s="73"/>
+      <c r="V290" s="73"/>
+      <c r="W290" s="73"/>
+      <c r="X290" s="73"/>
+      <c r="Y290" s="73"/>
+      <c r="Z290" s="73"/>
+      <c r="AA290" s="73"/>
+      <c r="AB290" s="73"/>
+      <c r="AC290" s="73"/>
+      <c r="AD290" s="73"/>
+      <c r="AE290" s="73"/>
+      <c r="AF290" s="73"/>
+      <c r="AG290" s="73"/>
+      <c r="AH290" s="73"/>
+      <c r="AI290" s="73"/>
+      <c r="AJ290" s="73"/>
+      <c r="AK290" s="73"/>
+      <c r="AL290" s="73"/>
+      <c r="AM290" s="73"/>
     </row>
     <row r="291" spans="4:39">
       <c r="D291" s="8" t="s">
@@ -27164,84 +27186,84 @@
       </c>
     </row>
     <row r="292" spans="4:39" ht="15" customHeight="1">
-      <c r="D292" s="126" t="s">
+      <c r="D292" s="128" t="s">
         <v>698</v>
       </c>
-      <c r="E292" s="126"/>
-      <c r="F292" s="126"/>
-      <c r="G292" s="126"/>
-      <c r="H292" s="126"/>
-      <c r="I292" s="126"/>
-      <c r="J292" s="126"/>
-      <c r="K292" s="126"/>
-      <c r="L292" s="126"/>
-      <c r="M292" s="126"/>
-      <c r="N292" s="126"/>
-      <c r="O292" s="126"/>
-      <c r="P292" s="126"/>
-      <c r="Q292" s="126"/>
-      <c r="R292" s="126"/>
-      <c r="S292" s="126"/>
-      <c r="T292" s="126"/>
-      <c r="U292" s="126"/>
-      <c r="V292" s="126"/>
-      <c r="W292" s="126"/>
-      <c r="X292" s="126"/>
-      <c r="Y292" s="126"/>
-      <c r="Z292" s="126"/>
-      <c r="AA292" s="126"/>
-      <c r="AB292" s="126"/>
-      <c r="AC292" s="126"/>
-      <c r="AD292" s="126"/>
-      <c r="AE292" s="126"/>
-      <c r="AF292" s="126"/>
-      <c r="AG292" s="126"/>
-      <c r="AH292" s="126"/>
-      <c r="AI292" s="126"/>
-      <c r="AJ292" s="126"/>
-      <c r="AK292" s="126"/>
-      <c r="AL292" s="126"/>
-      <c r="AM292" s="126"/>
+      <c r="E292" s="128"/>
+      <c r="F292" s="128"/>
+      <c r="G292" s="128"/>
+      <c r="H292" s="128"/>
+      <c r="I292" s="128"/>
+      <c r="J292" s="128"/>
+      <c r="K292" s="128"/>
+      <c r="L292" s="128"/>
+      <c r="M292" s="128"/>
+      <c r="N292" s="128"/>
+      <c r="O292" s="128"/>
+      <c r="P292" s="128"/>
+      <c r="Q292" s="128"/>
+      <c r="R292" s="128"/>
+      <c r="S292" s="128"/>
+      <c r="T292" s="128"/>
+      <c r="U292" s="128"/>
+      <c r="V292" s="128"/>
+      <c r="W292" s="128"/>
+      <c r="X292" s="128"/>
+      <c r="Y292" s="128"/>
+      <c r="Z292" s="128"/>
+      <c r="AA292" s="128"/>
+      <c r="AB292" s="128"/>
+      <c r="AC292" s="128"/>
+      <c r="AD292" s="128"/>
+      <c r="AE292" s="128"/>
+      <c r="AF292" s="128"/>
+      <c r="AG292" s="128"/>
+      <c r="AH292" s="128"/>
+      <c r="AI292" s="128"/>
+      <c r="AJ292" s="128"/>
+      <c r="AK292" s="128"/>
+      <c r="AL292" s="128"/>
+      <c r="AM292" s="128"/>
     </row>
     <row r="293" spans="4:39" ht="34.5" customHeight="1">
-      <c r="D293" s="126" t="s">
+      <c r="D293" s="128" t="s">
         <v>699</v>
       </c>
-      <c r="E293" s="126"/>
-      <c r="F293" s="126"/>
-      <c r="G293" s="126"/>
-      <c r="H293" s="126"/>
-      <c r="I293" s="126"/>
-      <c r="J293" s="126"/>
-      <c r="K293" s="126"/>
-      <c r="L293" s="126"/>
-      <c r="M293" s="126"/>
-      <c r="N293" s="126"/>
-      <c r="O293" s="126"/>
-      <c r="P293" s="126"/>
-      <c r="Q293" s="126"/>
-      <c r="R293" s="126"/>
-      <c r="S293" s="126"/>
-      <c r="T293" s="126"/>
-      <c r="U293" s="126"/>
-      <c r="V293" s="126"/>
-      <c r="W293" s="126"/>
-      <c r="X293" s="126"/>
-      <c r="Y293" s="126"/>
-      <c r="Z293" s="126"/>
-      <c r="AA293" s="126"/>
-      <c r="AB293" s="126"/>
-      <c r="AC293" s="126"/>
-      <c r="AD293" s="126"/>
-      <c r="AE293" s="126"/>
-      <c r="AF293" s="126"/>
-      <c r="AG293" s="126"/>
-      <c r="AH293" s="126"/>
-      <c r="AI293" s="126"/>
-      <c r="AJ293" s="126"/>
-      <c r="AK293" s="126"/>
-      <c r="AL293" s="126"/>
-      <c r="AM293" s="126"/>
+      <c r="E293" s="128"/>
+      <c r="F293" s="128"/>
+      <c r="G293" s="128"/>
+      <c r="H293" s="128"/>
+      <c r="I293" s="128"/>
+      <c r="J293" s="128"/>
+      <c r="K293" s="128"/>
+      <c r="L293" s="128"/>
+      <c r="M293" s="128"/>
+      <c r="N293" s="128"/>
+      <c r="O293" s="128"/>
+      <c r="P293" s="128"/>
+      <c r="Q293" s="128"/>
+      <c r="R293" s="128"/>
+      <c r="S293" s="128"/>
+      <c r="T293" s="128"/>
+      <c r="U293" s="128"/>
+      <c r="V293" s="128"/>
+      <c r="W293" s="128"/>
+      <c r="X293" s="128"/>
+      <c r="Y293" s="128"/>
+      <c r="Z293" s="128"/>
+      <c r="AA293" s="128"/>
+      <c r="AB293" s="128"/>
+      <c r="AC293" s="128"/>
+      <c r="AD293" s="128"/>
+      <c r="AE293" s="128"/>
+      <c r="AF293" s="128"/>
+      <c r="AG293" s="128"/>
+      <c r="AH293" s="128"/>
+      <c r="AI293" s="128"/>
+      <c r="AJ293" s="128"/>
+      <c r="AK293" s="128"/>
+      <c r="AL293" s="128"/>
+      <c r="AM293" s="128"/>
     </row>
     <row r="294" spans="4:39">
       <c r="D294" s="8" t="s">
@@ -27312,6 +27334,7 @@
     <mergeCell ref="B233:AD233"/>
     <mergeCell ref="B234:AE234"/>
     <mergeCell ref="C241:AE241"/>
+    <mergeCell ref="B11:B13"/>
     <mergeCell ref="O11:P12"/>
     <mergeCell ref="Q11:V11"/>
     <mergeCell ref="W11:Z12"/>
@@ -27324,7 +27347,6 @@
     <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="Q12:T12"/>
     <mergeCell ref="U12:V12"/>
-    <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="E11:J12"/>
